--- a/ceshi.xlsx
+++ b/ceshi.xlsx
@@ -77,24 +77,7 @@
     <t>“AIAA报告”由美国航空航天学会（American Institute of Aeronautics and Astronautics）出品，共收录报告15000多篇。内容涵盖航空航天领域的科学、技术、工程、政策和标准等最新研究成果和技术创新。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>AIP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电子期刊数据库</t>
-    </r>
+    <t>AIP电子期刊数据库</t>
   </si>
   <si>
     <t>AIP（美国物理联合会，American Institute of Physics）是世界上居于领导地位的物理期刊出版社之一。主要的研究方向为物理学和天文物理学，并且为这一研究领域的科学家和教育工作者及学生服务。我馆购买了部分纸刊，可以浏览对应的电子期刊。</t>
@@ -244,45 +227,13 @@
     <t>“全球科研机构奖学金检索数据库”（EduScholarships Index）为索引数据库，内容覆盖全球210多个国家，600万所不同机构,包括从幼儿园教师到大学的教研人员信息、奖学金及助学金信息。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Elsevier/CELL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电子期刊</t>
-    </r>
+    <t>Elsevier/CELL电子期刊</t>
   </si>
   <si>
     <t>“《CELL》（《细胞》）”由Elsevier公司旗下的细胞出版社(Cell Press)出品，是关于生命科学领域最新研究发现的世界顶尖杂志。我馆可访问其中19种刊物。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Elsevier/CELL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电子期刊爱思唯尔细胞</t>
-    </r>
+    <t>Elsevier/CELL电子期刊爱思唯尔细胞</t>
   </si>
   <si>
     <t>Elsevier/Ei Village Compendex工程索引</t>
@@ -291,38 +242,7 @@
     <t>“Ei Village Compendex工程索引”由美国工程师学会联合会于1884年创办的综合性检索工具。收录期刊、会议录、出品物5000余种。内容涵盖各尖端学科、应用科学、工程与技术等领域。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Elsevier/Ei Village Compendex</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工程索引</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>EV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>爱思唯尔</t>
-    </r>
+    <t>Elsevier/Ei Village Compendex工程索引EV爱思唯尔</t>
   </si>
   <si>
     <t>Elsevier/Reaxys</t>
@@ -331,22 +251,7 @@
     <t>“Reaxys”由Elsevier出品，是优化化学合成路线的研发工具，为CrossFire Beilstein/Gmelin的升级产品,也是世界上较全的化学数值和事实性数据库。该工具将贝尔斯坦（Beilstein）、盖墨林（Gmelin）数据库、专利化学数据库（Patent）以及化学相关期刊的内容整合为统一的资源,包含了2800多万个反应、1800多万种物质、400多万条文献。同时，Reaxys还集成eMolecules和PubChem数据库内容，提供统一检索和访问。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Elsevier/Reaxys</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>爱思唯尔</t>
-    </r>
+    <t>Elsevier/Reaxys爱思唯尔</t>
   </si>
   <si>
     <t>Elsevier/ScienceDirect books电子书</t>
@@ -364,22 +269,7 @@
     <t>ScienceDirect自由全文库由Elsevier公司出品。收录了全球超过25%的科学、技术和医学方面的文献，其中被SCI收录的期刊占核心期刊品种的1/4。我馆读者目前可访问自由全文库所有期刊自首卷首期至今的全部内容。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Elsevier/ScienceDirect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自由全文库（含回溯）爱思唯尔</t>
-    </r>
+    <t>Elsevier/ScienceDirect自由全文库（含回溯）爱思唯尔</t>
   </si>
   <si>
     <t>Elsevier/Scopus</t>
@@ -388,24 +278,7 @@
     <t>“Scopus”由Elsevier出品，收录了来自全球4000家出版社的近2万期刊，是全球最大的文摘和引文数据库，为科研人员提供一站式获取科技文献的平台。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Elsevier/Scopus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>爱思唯尔</t>
-    </r>
+    <t>Elsevier/Scopus爱思唯尔</t>
   </si>
   <si>
     <t>Emerald/Emerald管理学数据库(Management Xtra)</t>
@@ -729,63 +602,16 @@
     <t>“SpringerLink电子期刊”由Springer Natural集团出品。我馆可访问部分电子期刊全文内容，内容回溯至2007年。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Springer Link/Springer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电子期刊数据库斯普林格</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Springer Link/Springer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电子书</t>
-    </r>
+    <t>Springer Link/Springer电子期刊数据库斯普林格</t>
+  </si>
+  <si>
+    <t>Springer Link/Springer电子书</t>
   </si>
   <si>
     <t>“SpringerLink电子书”由Springer Natural集团出品。我馆可访问该平台2005版权年开始的电子图书专著10万余种。内容涵盖自然科学、社会科学等综合性学科。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Springer Link/Springer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电子书斯普林格</t>
-    </r>
+    <t>Springer Link/Springer电子书斯普林格</t>
   </si>
   <si>
     <t>Taylor &amp; Francis Online/Taylor &amp; Francis电子期刊数据库</t>
@@ -1268,120 +1094,22 @@
     <t>中国知网/中国科技项目创新成果鉴定意见数据库清华同方</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中国知网</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中国年鉴网络出版总库</t>
-    </r>
+    <t>中国知网/中国年鉴网络出版总库</t>
   </si>
   <si>
     <t>内容覆盖基本国情、地理历史、政治军事外交、法律、经济、科学技术、教育、文化体育事业、医疗卫生、社会生活、人物、统计资料、文件标准与法律法规等各个领域。我馆收录年限至2017年。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中国知网</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中国年鉴网络出版总库清华同方</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中国知网</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中国学术期刊网络出版总库</t>
-    </r>
+    <t>中国知网/中国年鉴网络出版总库清华同方</t>
+  </si>
+  <si>
+    <t>中国知网/中国学术期刊网络出版总库</t>
   </si>
   <si>
     <t>该资源收录范围以学术、工程技术、政策指导、高级科普、行业指导及教育类期刊为主，内容覆盖自然科学、工程技术、农业、哲学、医学、人文社会科学等各个领域。收录国内学术期刊八千余种，全文文献总量六千余万篇。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中国知网</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中国学术期刊网络出版总库清华同方</t>
-    </r>
+    <t>中国知网/中国学术期刊网络出版总库清华同方</t>
   </si>
   <si>
     <t>中国知网/中国优秀硕士学位论文全文数据库</t>
@@ -1390,30 +1118,7 @@
     <t>覆盖基础科学、工程技术、农业、哲学、医学、哲学、人文、社会科学等各个领域。重点收录985、211高校、中国科学院、社会科学院等重点院校高校的优秀硕士论文、重要特色学科如通信、军事学、中医药等专业的优秀硕士论文。目前，收录来自800余家培养单位的优秀硕士学位论文500余万篇。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中国知网</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中国优秀硕士学位论文全文数据库清华同方</t>
-    </r>
+    <t>中国知网/中国优秀硕士学位论文全文数据库清华同方</t>
   </si>
   <si>
     <t>中国知网/中国重要会议论文全文数据库</t>
@@ -1453,7 +1158,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -1462,19 +1167,15 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="宋体-简"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体-简"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1958,28 +1659,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1988,137 +1692,127 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2505,7 +2199,7 @@
   <dimension ref="A1:G165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G1" sqref="A1:G165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -2522,3794 +2216,3794 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:7">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" ht="18" spans="1:7">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="6" t="s">
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" ht="18" spans="1:7">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" ht="18" spans="1:7">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" ht="18" spans="1:7">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="6" t="s">
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" ht="18" spans="1:7">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="E33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="E34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="E35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="3" t="s">
+      <c r="E36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="E37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="E38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="3" t="s">
+      <c r="E39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="3" t="s">
+      <c r="E40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="3" t="s">
+      <c r="E41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="E42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="3" t="s">
+      <c r="F43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="F44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="3" t="s">
+      <c r="E46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="E47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="3" t="s">
+      <c r="E48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="E49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="3" t="s">
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="E50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="3" t="s">
+      <c r="F51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="3" t="s">
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="3" t="s">
+      <c r="E52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="F53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="3" t="s">
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="3" t="s">
+      <c r="F54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="3" t="s">
+      <c r="F55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="3" t="s">
+      <c r="E56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="3" t="s">
+      <c r="E57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="3" t="s">
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="3" t="s">
+      <c r="E58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="3" t="s">
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="3" t="s">
+      <c r="E59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="3" t="s">
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="3" t="s">
+      <c r="E60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="3" t="s">
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="3" t="s">
+      <c r="E61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="3" t="s">
+      <c r="E62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="3" t="s">
+      <c r="E63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="3" t="s">
+      <c r="E64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="E65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="3" t="s">
+      <c r="E66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="3" t="s">
+      <c r="E67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="3" t="s">
+      <c r="E68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="3" t="s">
+      <c r="E69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="3" t="s">
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="3" t="s">
+      <c r="E70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="3" t="s">
+      <c r="E71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="E72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="3" t="s">
+      <c r="E73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="3" t="s">
+      <c r="E74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="3" t="s">
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="3" t="s">
+      <c r="E75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="3" t="s">
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="3" t="s">
+      <c r="E76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="3" t="s">
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="3" t="s">
+      <c r="E77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="3" t="s">
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="3" t="s">
+      <c r="E78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="3" t="s">
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="3" t="s">
+      <c r="E79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="3" t="s">
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="3" t="s">
+      <c r="F80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="3" t="s">
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="3" t="s">
+      <c r="E81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="3" t="s">
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="3" t="s">
+      <c r="E82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="83" ht="18" spans="1:7">
-      <c r="A83" s="3" t="s">
+    <row r="83" spans="1:7">
+      <c r="A83" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="6" t="s">
+      <c r="E83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="84" ht="18" spans="1:7">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="1:7">
+      <c r="A84" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="3" t="s">
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="6" t="s">
+      <c r="E84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="3" t="s">
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="3" t="s">
+      <c r="E85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="3" t="s">
+      <c r="F86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="3" t="s">
+      <c r="E87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="3" t="s">
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="3" t="s">
+      <c r="F88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="3" t="s">
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="3" t="s">
+      <c r="F89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="3" t="s">
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="3" t="s">
+      <c r="E90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="3" t="s">
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="3" t="s">
+      <c r="E91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="3" t="s">
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="3" t="s">
+      <c r="E92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="3" t="s">
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="3" t="s">
+      <c r="E93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="3" t="s">
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="E94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="E95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="3" t="s">
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="3" t="s">
+      <c r="E96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="3" t="s">
+      <c r="E97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="3" t="s">
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="3" t="s">
+      <c r="E98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="G98" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="3" t="s">
+      <c r="E99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="3" t="s">
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="3" t="s">
+      <c r="E100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="G100" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="3" t="s">
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="3" t="s">
+      <c r="F101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="3" t="s">
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" s="3" t="s">
+      <c r="E102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="3" t="s">
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="3" t="s">
+      <c r="E103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="G103" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="3" t="s">
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" s="3" t="s">
+      <c r="E104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="3" t="s">
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F105" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="3" t="s">
+      <c r="F105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="3" t="s">
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="3" t="s">
+      <c r="E106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="3" t="s">
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="3" t="s">
+      <c r="E107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="G107" s="2" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="3" t="s">
+      <c r="E108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="3" t="s">
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="3" t="s">
+      <c r="E109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G109" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="3" t="s">
+      <c r="E110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="G110" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="3" t="s">
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E111" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" s="3" t="s">
+      <c r="E111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G111" s="3" t="s">
+      <c r="G111" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="3" t="s">
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F112" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="3" t="s">
+      <c r="F112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="3" t="s">
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" s="3" t="s">
+      <c r="E113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G113" s="3" t="s">
+      <c r="G113" s="2" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="3" t="s">
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E114" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="3" t="s">
+      <c r="E114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E115" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F115" s="3" t="s">
+      <c r="E115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="G115" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="3" t="s">
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E116" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" s="3" t="s">
+      <c r="E116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="3" t="s">
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="F117" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G117" s="3" t="s">
+      <c r="G117" s="2" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="3" t="s">
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F118" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="G118" s="2" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="3" t="s">
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="3" t="s">
+      <c r="E119" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G119" s="3" t="s">
+      <c r="G119" s="2" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="3" t="s">
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="3" t="s">
+      <c r="E120" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="G120" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="3" t="s">
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E121" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="3" t="s">
+      <c r="E121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G121" s="3" t="s">
+      <c r="G121" s="2" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="3" t="s">
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="F122" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G122" s="3" t="s">
+      <c r="G122" s="2" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="3" t="s">
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E123" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" s="3" t="s">
+      <c r="E123" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E124" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" s="3" t="s">
+      <c r="E124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="3" t="s">
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E125" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="3" t="s">
+      <c r="E125" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G125" s="3" t="s">
+      <c r="G125" s="2" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="3" t="s">
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E126" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="3" t="s">
+      <c r="E126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G126" s="3" t="s">
+      <c r="G126" s="2" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="3" t="s">
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E127" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="3" t="s">
+      <c r="E127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="G127" s="2" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="3" t="s">
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E128" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="3" t="s">
+      <c r="E128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="G128" s="2" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="3" t="s">
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E129" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" s="3" t="s">
+      <c r="E129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G129" s="3" t="s">
+      <c r="G129" s="2" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="3" t="s">
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="E130" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="F130" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="G130" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E131" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" s="3" t="s">
+      <c r="E131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G131" s="3" t="s">
+      <c r="G131" s="2" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E132" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="3" t="s">
+      <c r="E132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G132" s="3" t="s">
+      <c r="G132" s="2" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E133" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="3" t="s">
+      <c r="E133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="G133" s="2" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" s="3" t="s">
+      <c r="E134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="G134" s="2" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E135" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" s="3" t="s">
+      <c r="E135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="G135" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E136" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" s="3" t="s">
+      <c r="E136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G136" s="3" t="s">
+      <c r="G136" s="2" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C137" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="3" t="s">
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E137" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" s="3" t="s">
+      <c r="E137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="G137" s="2" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="3" t="s">
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="E138" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" s="3" t="s">
+      <c r="E138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C139" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="3" t="s">
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E139" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G139" s="3" t="s">
+      <c r="E139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="3" t="s">
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E140" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" s="3" t="s">
+      <c r="E140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E141" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" s="3" t="s">
+      <c r="E141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="3" t="s">
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E142" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" s="3" t="s">
+      <c r="E142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E143" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143" s="3" t="s">
+      <c r="E143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" s="3" t="s">
+      <c r="E144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E145" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="E145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="3" t="s">
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E146" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" s="3" t="s">
+      <c r="E146" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G146" s="3" t="s">
+      <c r="G146" s="2" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C147" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="3" t="s">
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E147" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" s="3" t="s">
+      <c r="E147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G147" s="3" t="s">
+      <c r="G147" s="2" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E148" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G148" s="3" t="s">
+      <c r="E148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G149" s="3" t="s">
+      <c r="E149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G150" s="3" t="s">
+      <c r="E150" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="3" t="s">
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E151" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" s="3" t="s">
+      <c r="E151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G151" s="3" t="s">
+      <c r="G151" s="2" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="3" t="s">
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E152" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="3" t="s">
+      <c r="E152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G152" s="3" t="s">
+      <c r="G152" s="2" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="3" t="s">
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E153" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G153" s="3" t="s">
+      <c r="E153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C154" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="3" t="s">
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="E154" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F154" s="3" t="s">
+      <c r="F154" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G154" s="3" t="s">
+      <c r="G154" s="2" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C155" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="3" t="s">
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E155" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" s="3" t="s">
+      <c r="E155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G155" s="3" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="3" t="s">
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="E156" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" s="3" t="s">
+      <c r="E156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G156" s="3" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C157" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="3" t="s">
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E157" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" s="3" t="s">
+      <c r="E157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157" s="3" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="3" t="s">
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="E158" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F158" s="3" t="s">
+      <c r="F158" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="3" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="159" ht="18" spans="1:7">
-      <c r="A159" s="5" t="s">
+    <row r="159" spans="1:7">
+      <c r="A159" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C159" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="3" t="s">
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="E159" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F159" s="3" t="s">
+      <c r="F159" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G159" s="4" t="s">
+      <c r="G159" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="160" ht="18" spans="1:7">
-      <c r="A160" s="5" t="s">
+    <row r="160" spans="1:7">
+      <c r="A160" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="3" t="s">
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F160" s="3" t="s">
+      <c r="E160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G160" s="4" t="s">
+      <c r="G160" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="161" ht="18" spans="1:7">
-      <c r="A161" s="3" t="s">
+    <row r="161" spans="1:7">
+      <c r="A161" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C161" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="3" t="s">
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E161" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F161" s="3" t="s">
+      <c r="E161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G161" s="4" t="s">
+      <c r="G161" s="3" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="3" t="s">
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E162" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F162" s="3" t="s">
+      <c r="E162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G162" s="3" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C163" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="3" t="s">
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E163" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G163" s="3" t="s">
+      <c r="E163" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C164" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="3" t="s">
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E164" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" s="3" t="s">
+      <c r="E164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G164" s="3" t="s">
+      <c r="G164" s="2" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D165" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E165" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" s="3" t="s">
+      <c r="E165" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>369</v>
       </c>
     </row>
@@ -6317,7 +6011,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C1 E1:F1" numberStoredAsText="1"/>
+    <ignoredError sqref="E1:F1 C1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/ceshi.xlsx
+++ b/ceshi.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="377">
   <si>
     <t>名称</t>
   </si>
@@ -53,175 +53,430 @@
     <t>别名</t>
   </si>
   <si>
-    <t>书同文古籍数据库/清实录</t>
-  </si>
-  <si>
-    <t>中文</t>
+    <t>ACS Journals/美国化学学会期刊</t>
+  </si>
+  <si>
+    <t>英语</t>
   </si>
   <si>
     <t>全文</t>
   </si>
   <si>
-    <t>采用中国第一历史档案馆馆藏《实录》藏本（兼辅以少量珍贵存世藏本），共计4447卷，以太祖高皇帝至德宗景皇帝十一朝《实录》为主体。</t>
+    <t>“ACS电子期刊”由美国化学学会(American Chemical Society, ACS)出品。ACS成立于1876年，现已成为世界上最大的科技协会之一。</t>
   </si>
   <si>
     <t>馆外认证访问</t>
   </si>
   <si>
-    <t>网络/镜像</t>
-  </si>
-  <si>
-    <t>书同文古籍数据库/清会典</t>
-  </si>
-  <si>
-    <t>囊括了汉文《大清五部会典》的全部内容，是清代重要典章制度汇编，是研究清代政治、经济、军事等制度和国家政令的重要史料。</t>
-  </si>
-  <si>
-    <t>书同文古籍数据库/四部丛刊（09增补版）</t>
-  </si>
-  <si>
-    <t>原有《四部丛刊》着眼于选择宋元明珍本，而本次新增补内容选用《四部备要》全部内容，更偏重于实用，选取了一亿三千万字较有代表性的校本、注本，是学习和研究古代文献的常备书籍，更是文史工作者、学科学生基础研究之利器。</t>
-  </si>
-  <si>
-    <t>《文渊阁四库全书》电子版</t>
-  </si>
-  <si>
-    <t>“《文渊阁四库全书》电子版”以文渊阁《四库全书》为原始文本，收书三万六千余册，七万九千余卷，约7亿汉字，包括历史、文学、哲学、社会科学、自然科学等各方面内容。</t>
+    <t>网络</t>
+  </si>
+  <si>
+    <t>AIAA Conference Proceedings/ 美国航空航天学会报告数据库(AIAA)</t>
+  </si>
+  <si>
+    <t>“AIAA报告”由美国航空航天学会（American Institute of Aeronautics and Astronautics）出品，共收录报告15000多篇。内容涵盖航空航天领域的科学、技术、工程、政策和标准等最新研究成果和技术创新。</t>
+  </si>
+  <si>
+    <t>AIP电子期刊数据库</t>
+  </si>
+  <si>
+    <t>AIP（美国物理联合会，American Institute of Physics）是世界上居于领导地位的物理期刊出版社之一。主要的研究方向为物理学和天文物理学，并且为这一研究领域的科学家和教育工作者及学生服务。我馆购买了部分纸刊，可以浏览对应的电子期刊。</t>
+  </si>
+  <si>
+    <t>APS电子期刊数据库</t>
+  </si>
+  <si>
+    <t>APS全文期刊库由The American Physical Society出品。APS出版的物理评论系列期刊包括Physical Review A/B/C/D/E、Physical Review Letters 等。用户可通过APS期刊数据库平台访问学会出版的所有期刊。</t>
+  </si>
+  <si>
+    <t>ASME电子期刊数据库</t>
+  </si>
+  <si>
+    <t>ASME期刊库由美国机械工程师学会出品，学科涵盖机械工程、制造工程、海洋工程、力学、热力学、电子电气工程、机器人学等。用户可通过ASME期刊数据库平台访问学会出版的所有期刊。</t>
+  </si>
+  <si>
+    <t>Books in Print/在版书目(GBIP)</t>
+  </si>
+  <si>
+    <t>非全文</t>
+  </si>
+  <si>
+    <t>“Global Books In Prints(GBIP)”由RR Bowker LLC公司出品，是全球最大的网络图书信息查询系统，涵盖全球逾在版、绝版以及即将出品的纸本图书、电子图书、音像以及视频资料信息。</t>
   </si>
   <si>
     <t>馆内访问</t>
   </si>
   <si>
-    <t>镜像</t>
-  </si>
-  <si>
-    <t>中国数字方志库</t>
-  </si>
-  <si>
-    <t>“中国数字方志库”由北京籍古轩图书数字技术有限公司出品。收录1949年以前地志类文献一万五千余种。</t>
-  </si>
-  <si>
-    <t>书同文古籍数据库/《十通》</t>
-  </si>
-  <si>
-    <t>中国历代典章制度的大型工具书，由十部书名中带有"通"字的古典文献组成。</t>
-  </si>
-  <si>
-    <t>书同文古籍数据库/《四部丛刊》</t>
-  </si>
-  <si>
-    <t>该书电子版底本采用北京大学图书馆善本部馆藏上海涵芬楼景印《四部丛刊》。</t>
-  </si>
-  <si>
-    <t>书同文古籍数据库/中国历代石刻史料汇编</t>
-  </si>
-  <si>
-    <t>“中国历代石刻史料汇编”收录了一万五千余篇石刻文献，并附有历代金石学家撰写的考释文字，总计1150万字。</t>
-  </si>
-  <si>
-    <t>软件通</t>
-  </si>
-  <si>
-    <t>软件通采用微课形式将众多优质数字视频教育资源有机串联在一起，是通过计算机视频快速学习和精通掌握各种主流软件操作技能的按需学习和自主学习数据库系统，也是一个面向信息化应用技术实用技能的大规模实践学习型数据库系统。</t>
-  </si>
-  <si>
-    <t>国家法规数据库</t>
-  </si>
-  <si>
-    <t>由全国人大常委会法制工作委员会、国务院法制局、最高人民法院、最高人民检察院、国家信息中心共同开发并联合各省市信息中心及有关部委共同维护。内容包含全国人大法律、国务院行政法规、最高人民法院和最高人民检察院司法解释、裁判文书、各部门规章、各地地方性法规和地方政府规章，以及我国参与的国际条约和公约。</t>
-  </si>
-  <si>
-    <t>网络</t>
+    <t>Bridgeman艺术图书馆</t>
+  </si>
+  <si>
+    <t>“Bridgeman艺术图书馆数据库”收藏了来自于全球8,000多家博物馆、美术馆以及私人收藏、摄影家和艺术家的作品。目前共收录超过300万张图片，涉及艺术史、设计、建筑学、时尚、历史、地理、政治、科学、人类学等多个学科领域。</t>
+  </si>
+  <si>
+    <t>Cambridge Journals Digital Archive/剑桥电子期刊回溯库2011版</t>
+  </si>
+  <si>
+    <t>“剑桥电子期刊数据库（回溯版）”由剑桥大学出版社出品。电子期刊回溯数据库2011版收录了207种学术期刊，其中社会科学类期刊131种，自然科学类76种，自创刊年（1770年）至1996年左右、共计63万余篇期刊全文、430余万页期刊内容。涵盖人文科学、社会科学以及自然科学等领域。国家图书馆2012年以国家授权方式引进了该库，我馆可以免费使用。</t>
+  </si>
+  <si>
+    <t>Cambridge Journals Online/剑桥电子期刊数据库</t>
+  </si>
+  <si>
+    <t>“剑桥电子期刊数据库”由剑桥大学出版社出品。现已收录400余种学术期刊，内容涉及科学技术、社会科学与人文科学各领域。</t>
+  </si>
+  <si>
+    <t>De Gruyter/德古意特电子书（Pre2015）</t>
+  </si>
+  <si>
+    <t>德古意特出版社（Walter De Gruyter）是一家拥有200多年历史的综合性学术出版社。我馆于2016年购买了德古意特出版社联合普林斯顿大学出版社、宾夕法尼亚大学出版社、Bohlau出版社等近10家出版社的组合电子书包，共计10000余种电子图书。</t>
+  </si>
+  <si>
+    <t>EBSCO/Academic Search Ultimate (ASU)</t>
+  </si>
+  <si>
+    <t>多语种</t>
+  </si>
+  <si>
+    <t>部分全文</t>
+  </si>
+  <si>
+    <t>“Academic Search Ultimate”由EBSCO Publishing出品。该库收录近2万种期刊的索摘，提供13000余种全文期刊。另收录非刊类全文文献如全文书籍专著以及会议论文、百科和专题报告全文等。内容涵盖了社会学、人文学、教育学、计算机学、工程学、物理学、化工、语言学、文学与艺术、医药学、种族学等多学科领域。</t>
+  </si>
+  <si>
+    <t>EBSCO/Agricola</t>
+  </si>
+  <si>
+    <t>“Agricola”由美国农业部国家农业图书馆出品。主题涵盖农业学、植物学、化学、自然资源、动物学和生态学等，收录1970年迄今的期刊、图书、会议论文、研究报告、政府文件和视听媒体、计算机软件等数据，提供超过600万笔关于期刊文章、书籍章节、论文等文献题录信息。</t>
+  </si>
+  <si>
+    <t>EBSCO/Art &amp; Architecture Source</t>
+  </si>
+  <si>
+    <t>“Art &amp; Architecture Source”由EBSCO Publishing出品。收录700多种全文期刊、近200种全文书籍以及6万多张图片，涵盖了范围广泛的相关主题，从美术、装饰艺术和商业艺术到建筑和建筑设计的各个领域。</t>
+  </si>
+  <si>
+    <t>EBSCO/Business Source Ultimate (BSU)</t>
+  </si>
+  <si>
+    <t>“Business Source Ultimate”由EBSCO Publishing出品。BSU为EBSCO最完整的商管财经全文数据库，收录7000多种期刊索引及摘要，提供6000多种全文期刊。另外收录书籍专著、企业公司档案、国家经济报告、行业报告、案例研究、市场研究报告、SWOT分析等。</t>
+  </si>
+  <si>
+    <t>EBSCO/eBook Collection</t>
+  </si>
+  <si>
+    <t>“eBook Collection”电子图书由EBSCO Publishing出品。我馆可访问该库1万3千余种电子图书专著，涵盖美国历史、小说、诗歌、人物传记、哲学宗教等内容。</t>
+  </si>
+  <si>
+    <t>EBSCO/ERIC</t>
+  </si>
+  <si>
+    <t>“ERIC”是美国教育部教育资源信息中心出品的教育文献和研究在线资源，含教育相关的论文(ERIC Documents)及期刊文献(Journal Articles)两种档案。</t>
+  </si>
+  <si>
+    <t>EBSCO/European Views of the Americas: 1493 to 1750</t>
+  </si>
+  <si>
+    <t>“European Views of the Americas: 1493 to 1750”由EBSCO Publishing与John Carter Brown Library合作出品。针对1750年前欧洲创作的美国相关作品的书面记录，收录了3万余种图书、手稿资源。</t>
+  </si>
+  <si>
+    <t>EBSCO/GreenFILE</t>
+  </si>
+  <si>
+    <t>“GreenFILE”由EBSCO Publishing出品。该数据库针对人类对环境所产生的各方面影响，包括全球变暖、绿色建筑、污染、可持续农业、再生能源、资源回收等，提供一百多万条记录的索引与摘要，以及1万5千多条记录的OpenAccess全文。</t>
+  </si>
+  <si>
+    <t>EBSCO/Library, Information Science &amp; Technology Abstracts</t>
+  </si>
+  <si>
+    <t>“图书馆信息科学与技术文摘数据库(LISTA)”由EBSCO Publishing出品。提供超过900种期刊、图书、研究报告和会议录的索引，最早的记录回溯至1952年。内容涵盖了图书馆馆长、分类、编目、书目学、在线信息检索、信息管理等主题。</t>
+  </si>
+  <si>
+    <t>EBSCO/MEDLINE</t>
+  </si>
+  <si>
+    <t>“MEDLINE”由美国国家医学图书馆（National Library of Medicine）创建。可检索5000多种流行生物医学期刊中的引文，提供了有关医学、护理、牙科、兽医、医疗保健制度、临床前科学及其他方面的医学信息。</t>
+  </si>
+  <si>
+    <t>EBSCO/OpenDissertations</t>
+  </si>
+  <si>
+    <t>“OpenDissertations”是一个开放存取数据库，在H.W. Wilson Foundation及波士顿Congregational Library &amp; Archives支持下创建，整合了EBSCO先前发布的American Doctoral Dissertations，收录了世界各地优选的大学院校提供的专题论文元数据。</t>
+  </si>
+  <si>
+    <t>EBSCO/Professional Development Collection</t>
+  </si>
+  <si>
+    <t>“Professional Development Collection”由EBSCO Publishing出品。收录教育学高质量期刊700多种，其中持续收录的全文资源有200多种，与ERIC做为教育学资源套装，为教育者提供完整的引用资源专辑以及全文参考资源。</t>
+  </si>
+  <si>
+    <t>EBSCO/SPORTDiscus with Full Text</t>
+  </si>
+  <si>
+    <t>“SPORTDiscus with Full Text”由EBSCO Publishing出品。全面提供世界上的运动和运动医学期刊的全文资源，收录SPORTDiscus索引中800多种最受欢迎期刊的全文。全文收录的文章可追溯至1930年。</t>
+  </si>
+  <si>
+    <t>EBSCO/Teacher Reference Center</t>
+  </si>
+  <si>
+    <t>“Teacher Reference Center”由EBSCO Publishing出品。包括200多种教育领域期刊杂志的索引文摘。</t>
+  </si>
+  <si>
+    <t>EduScholarships Index全球科研机构奖学金检索数据库</t>
+  </si>
+  <si>
+    <t>“全球科研机构奖学金检索数据库”（EduScholarships Index）为索引数据库，内容覆盖全球210多个国家，600万所不同机构,包括从幼儿园教师到大学的教研人员信息、奖学金及助学金信息。</t>
+  </si>
+  <si>
+    <t>Elsevier/CELL电子期刊</t>
+  </si>
+  <si>
+    <t>“《CELL》（《细胞》）”由Elsevier公司旗下的细胞出版社(Cell Press)出品，是关于生命科学领域最新研究发现的世界顶尖杂志。我馆可访问其中19种刊物。</t>
+  </si>
+  <si>
+    <t>Elsevier/CELL电子期刊爱思唯尔细胞</t>
+  </si>
+  <si>
+    <t>Elsevier/Ei Village Compendex工程索引</t>
+  </si>
+  <si>
+    <t>“Ei Village Compendex工程索引”由美国工程师学会联合会于1884年创办的综合性检索工具。收录期刊、会议录、出品物5000余种。内容涵盖各尖端学科、应用科学、工程与技术等领域。</t>
+  </si>
+  <si>
+    <t>Elsevier/Ei Village Compendex工程索引EV爱思唯尔</t>
+  </si>
+  <si>
+    <t>Elsevier/Reaxys</t>
+  </si>
+  <si>
+    <t>“Reaxys”由Elsevier出品，是优化化学合成路线的研发工具，为CrossFire Beilstein/Gmelin的升级产品,也是世界上较全的化学数值和事实性数据库。该工具将贝尔斯坦（Beilstein）、盖墨林（Gmelin）数据库、专利化学数据库（Patent）以及化学相关期刊的内容整合为统一的资源,包含了2800多万个反应、1800多万种物质、400多万条文献。同时，Reaxys还集成eMolecules和PubChem数据库内容，提供统一检索和访问。</t>
+  </si>
+  <si>
+    <t>Elsevier/Reaxys爱思唯尔</t>
+  </si>
+  <si>
+    <t>Elsevier/ScienceDirect books电子书</t>
+  </si>
+  <si>
+    <t>“ScienceDirect电子图书”由Elsevier出品。我馆可访问该库25000余种电子图书专著，内容涵盖基础自然科学领域如数学、物理、化学、地球、环境等，以及工程技术、生命科学和社会科学领域。部分图书最早可以回溯至1900年代。</t>
+  </si>
+  <si>
+    <t>Elsevier/ScienceDirect books电子书爱思唯尔</t>
+  </si>
+  <si>
+    <t>Elsevier/ScienceDirect自由全文库（含回溯）</t>
+  </si>
+  <si>
+    <t>ScienceDirect自由全文库由Elsevier公司出品。收录了全球超过25%的科学、技术和医学方面的文献，其中被SCI收录的期刊占核心期刊品种的1/4。我馆读者目前可访问自由全文库所有期刊自首卷首期至今的全部内容。</t>
+  </si>
+  <si>
+    <t>Elsevier/ScienceDirect自由全文库（含回溯）爱思唯尔</t>
+  </si>
+  <si>
+    <t>Elsevier/Scopus</t>
+  </si>
+  <si>
+    <t>“Scopus”由Elsevier出品，收录了来自全球4000家出版社的近2万期刊，是全球最大的文摘和引文数据库，为科研人员提供一站式获取科技文献的平台。</t>
+  </si>
+  <si>
+    <t>Elsevier/Scopus爱思唯尔</t>
+  </si>
+  <si>
+    <t>Emerald/Emerald管理学数据库(Management Xtra)</t>
+  </si>
+  <si>
+    <t>Emerald管理学数据库由Emerald出版社出品。该库包含400多种专家评审的管理学术期刊，涉及会计金融与经济学、商业管理与战略、公共政策与环境管理等学科。</t>
+  </si>
+  <si>
+    <t>Emerald/Emerald回溯期刊数据库</t>
+  </si>
+  <si>
+    <t>“Emerald回溯期刊数据库”由Emerald出版社出品。该库包含180种全文期刊，所有期刊均回溯至首卷首期，最早可回溯至1898年，超过11万篇全文。内容涉及会计、金融与法律，人力资源，管理科学与政策，图书馆情报学，工程学等领域。国家图书馆2010年以国家授权方式引进了该库，我馆可以免费使用。</t>
+  </si>
+  <si>
+    <t>Encyclopedia Britannica Online/大英百科全书</t>
+  </si>
+  <si>
+    <t>“Encyclopedia Britannica Online”（大英百科全书网络版）由不列颠百科全书公司出品。该库于1994年正式发布，超过13万篇百科文章，包含名人传记、图片、插图、视频、动画和音频剪辑，还包含电子书、原始文件、推荐网站、英语字典/词典词目、超过20年大英年鉴资料,数据每日更新,平均每月更新或修订一千多篇文章。</t>
+  </si>
+  <si>
+    <t>Gale/Archives Unbound-19th Century English-Language Journals from the Far East</t>
+  </si>
+  <si>
+    <t>“Archives Unbound”由Gale集团出品。我馆订购的《19世纪远东英文期刊》合集包括6种19世纪远东英语期刊，分别为《印中搜闻》（1817-1822）、《中国评论》（1872-1901）、《广州杂志》（1831）、《中国杂志》（1845-1850）、《中日丛报》（1863-1865）和《中日释疑》（1867-1870）。</t>
+  </si>
+  <si>
+    <t>Gale/Archives Unbound-19th Century English-Language Journals from the Far East AU</t>
+  </si>
+  <si>
+    <t>Gale/Archives Unbound-Chinese Maritime Customs Service: The Customs’ Gazette, 1869-1913</t>
+  </si>
+  <si>
+    <t>我馆与Gale集团合作出品了《中国海关总税务司：&lt;海关公报&gt;，1869年-1913年》，通过Archives Unbound平台提供使用。</t>
+  </si>
+  <si>
+    <t>Gale/Archives Unbound-Chinese Maritime Customs Service: The Customs’ Gazette, 1869-1913AU</t>
+  </si>
+  <si>
+    <t>Gale/Archives Unbound-Policing the Shanghai International Settlement, 1894-1945</t>
+  </si>
+  <si>
+    <t>“Archives Unbound”由Gale集团出品。我馆订购的《上海公共租界警务子库》收录全文3886条。内容涵盖了1894至1945年间，英国市政警察部队在上海公共租界的大部分档案，涉及政治示威、罢工、劳动和社会动荡，公共租界与中国政府之间的关系等内容。</t>
+  </si>
+  <si>
+    <t>Gale/Archives Unbound-Policing the Shanghai International Settlement, 1894-1945AU</t>
+  </si>
+  <si>
+    <t>Gale/Archives Unbound-Shanghai Municipal Council: The Municipal Gazette, 1908-1942</t>
+  </si>
+  <si>
+    <t>我馆与Gale集团合作出品了《上海工部局董事会：&lt;工部局公报&gt;，1908年-1942年》，通过Archives Unbound平台提供使用。</t>
+  </si>
+  <si>
+    <t>Gale/Archives Unbound-Shanghai Municipal Council: The Municipal Gazette, 1908-1942AU</t>
+  </si>
+  <si>
+    <t>Gale/Business Insights: Global</t>
+  </si>
+  <si>
+    <t>“Business Insights：Global”由Gale公司出品，为GALE Business Insights Essencials的升级版。收录了全球50多万家公司的详细信息、Gale公司出版的著名商业参考书、期刊、杂志、报纸、时事通讯、报告等商业信息来源、深度行业概况、各类市场报告、经济和商业指标的互动图表的比较数据、国家概况信息与国家经济报告、全球商业的案例研究和管理、领导力和其他主题的视频等。</t>
+  </si>
+  <si>
+    <t>Gale/Eighteenth Century Collections Online (ECCO)</t>
+  </si>
+  <si>
+    <t>“Eighteenth Century Collections Online (ECCO)”由Gale集团出品。收录了1700-1799年之间在英国出品的所有图书和在美国及英联邦出品的非英文书籍，涵盖英语、法语、德语、西班牙语、拉丁文等多个语种。我馆订购了ECCO Part I: Social Science, Art、Part I:Literature and Language、Part II: Social Science, Art、Part II: Literature and Language内容。</t>
+  </si>
+  <si>
+    <t>Gale/Twayne's Author Series</t>
+  </si>
+  <si>
+    <t>“Twayne's Author Series”由Gale公司出品，包含了Gale公司著名的Twayne Literary Masters系列丛书，提供了世界上英语作家及其作品的介绍和评论。</t>
   </si>
   <si>
     <t>IEEE Xplore/IEEE会议录(POPALL)</t>
   </si>
   <si>
-    <t>英语</t>
-  </si>
-  <si>
     <t>“IEEE会议录数据库”由国际电子与电气工程师协会（IEEE）出品。该库收录了1998年以来出品的近400种会议录，涵盖了电子工程与计算机科学的各个领域。</t>
   </si>
   <si>
+    <t>IEEE/ASPP全文期刊</t>
+  </si>
+  <si>
+    <t>“IEEE All-Society Periodicals Package (ASPP)”由IEEE协会出品。该库包含200余种IEEE所有分会的在线资源，包括期刊、杂志、会刊等，数据回溯至2005年。</t>
+  </si>
+  <si>
+    <t>IGI Ebook/IGI 电子书</t>
+  </si>
+  <si>
+    <t>“IGI Global books”由IGI出版社出品。我馆可访问该库4000余种电子图书专著，内容涵盖商务与管理、信息科技、计算机科学与信息技术、教育科技、环境科学与技术、政务管理，图书馆信息科技、传媒与通信科技、医疗与健康卫生、生命科学技术等11个学科领域。</t>
+  </si>
+  <si>
     <t>IHS标准数据库（DOD、Eurofile、SAE、ASTM）</t>
   </si>
   <si>
     <t>IHS Markit收录了世界各地很多国家和学协会的标准，我馆目前订购了DOD（美国国防部军标）、Eurofile（欧洲文档）、SAE（美国机动车工程师学会标准）和ASTM（美国材料实验协会标准）4个标准。</t>
   </si>
   <si>
+    <t>incoPat全球科技分析运营平台</t>
+  </si>
+  <si>
+    <t>incoPat是一个将全球顶尖的发明智慧深度整合，并翻译为中文，为中国的项目决策者、研发人员、知识产权管理人员提供科技创新情报的平台。该资源提供6个并发用户为公众服务。</t>
+  </si>
+  <si>
+    <t>IOP/英国皇家物理学会电子书</t>
+  </si>
+  <si>
+    <t>“IOP电子书”由IOPscience (英国皇家物理学会)出品。我馆可访问自2014年起该社出品的电子图书专著。</t>
+  </si>
+  <si>
+    <t>IOP/英国皇家物理学会期刊数据库</t>
+  </si>
+  <si>
+    <t>“IOP期刊数据库”由英国皇家物理学会(Institute of Physics)出品。我馆可访问IOP Science Extra期刊包。</t>
+  </si>
+  <si>
+    <t>ISI/EMIS新兴市场信息服务</t>
+  </si>
+  <si>
+    <t>“ISI EMIS新兴市场数据库”由ISI公司出品。该库收录欧洲、拉美、亚洲的发展中国家和地区的新兴市场，提供新闻报道、企业财务报告、行业分析、股票报价、宏观预测等方面的信息。</t>
+  </si>
+  <si>
     <t>JCR</t>
   </si>
   <si>
-    <t>非全文</t>
-  </si>
-  <si>
     <t>JCR(Journal Citation Reports)数据库是科睿唯安公司出品的多学科期刊评价工具，使用量化的统计信息评价在Web of Science核心合集上收录的学术期刊，帮助使用者了解某一期刊在特定年度、特定主题在该领域的影响力。</t>
   </si>
   <si>
-    <t>中国社会科学文库</t>
-  </si>
-  <si>
-    <t>“中国社会科学文库”由中国社会科学出版社出品，收录该社出版的学术专著电子图书超过2万种。内容涵盖哲学社会科学11个基本学科。</t>
-  </si>
-  <si>
-    <t>九星时代触摸屏报刊阅读系统V4.0</t>
-  </si>
-  <si>
-    <t>九星时代触摸屏报刊阅读系统V4.0是北京九星时代科技股份有限公司自主研发供触摸屏上使用的电子报刊阅读系统。</t>
-  </si>
-  <si>
-    <t>知识视界微信图书馆</t>
-  </si>
-  <si>
-    <t>多语种</t>
-  </si>
-  <si>
-    <t>多媒体</t>
-  </si>
-  <si>
-    <t>“知识视界”微信图书馆是以八个国家优质的科普视频为基础搭建的微信在线学习平台，库中精选了国际著名教科节目中最有趣实用的短视频，以科学常识为知识点，讲解深入浅出，内附中文配音，方便随时随地学习。平台每周更新2次，一次5~8个节目，在线即可观看学习，是我们开拓眼界、增长知识的好帮手。</t>
-  </si>
-  <si>
-    <t>少儿多媒体图书馆</t>
-  </si>
-  <si>
-    <t>中文/英语</t>
-  </si>
-  <si>
-    <t>《少儿多媒体图书馆》资源分为幼教、绘本、绘本导读、语文、数学、英语、舞蹈、音乐、美术、百科、科学探索、诗词、国学等多个方向。主要分为绘声绘色、国学文化、科普百科、艺术培养、中小课堂、益智互动、家校共育几大模块，侧重于关注少儿的兴趣培养、成长教育以及家校共育，打造快乐型、自主型、互动型的学习平台。</t>
-  </si>
-  <si>
-    <t>京东读书专业版</t>
-  </si>
-  <si>
-    <t>京东读书专业版的资源共分为 22 个一级分类，170多个二级分类，涉及哲学、经济学、法学、文学、历史学、医学、管理学、艺术、工业科技等十多个学科，现有中文电子图书约 20万种。</t>
-  </si>
-  <si>
-    <t>Gale/Business Insights: Global</t>
-  </si>
-  <si>
-    <t>部分全文</t>
-  </si>
-  <si>
-    <t>“Business Insights：Global”由Gale公司出品，为GALE Business Insights Essencials的升级版。收录了全球50多万家公司的详细信息、Gale公司出版的著名商业参考书、期刊、杂志、报纸、时事通讯、报告等商业信息来源、深度行业概况、各类市场报告、经济和商业指标的互动图表的比较数据、国家概况信息与国家经济报告、全球商业的案例研究和管理、领导力和其他主题的视频等。</t>
-  </si>
-  <si>
-    <t>Gale/Twayne's Author Series</t>
-  </si>
-  <si>
-    <t>“Twayne's Author Series”由Gale公司出品，包含了Gale公司著名的Twayne Literary Masters系列丛书，提供了世界上英语作家及其作品的介绍和评论。</t>
-  </si>
-  <si>
-    <t>Gale/Eighteenth Century Collections Online (ECCO)</t>
-  </si>
-  <si>
-    <t>“Eighteenth Century Collections Online (ECCO)”由Gale集团出品。收录了1700-1799年之间在英国出品的所有图书和在美国及英联邦出品的非英文书籍，涵盖英语、法语、德语、西班牙语、拉丁文等多个语种。我馆订购了ECCO Part I: Social Science, Art、Part I:Literature and Language、Part II: Social Science, Art、Part II: Literature and Language内容。</t>
-  </si>
-  <si>
-    <t>IEEE/ASPP全文期刊</t>
-  </si>
-  <si>
-    <t>“IEEE All-Society Periodicals Package (ASPP)”由IEEE协会出品。该库包含200余种IEEE所有分会的在线资源，包括期刊、杂志、会刊等，数据回溯至2005年。</t>
+    <t>JSTOR/西文过刊期刊</t>
+  </si>
+  <si>
+    <t>“JSTOR西文过刊期刊数据库”由Journal Storage出品。该库是一个以政治学、经济学、哲学、历史等人文社会学科为主，兼有一般学科主题共十几个领域代表性学术期刊的回溯全文库，共收录2900多种期刊。可浏览创刊号到最近两三年前的期刊全文。</t>
+  </si>
+  <si>
+    <t>New Scientific and Technical Information Network（New STN科学与技术信息联机检索平台）</t>
+  </si>
+  <si>
+    <t>“New STN科学与技术信息联机检索平台”由CAS和FIZ Karlsruhe共同运营。可联机检索150多个数据库。内容涵盖期刊文献、专利、结构式、生物序列、性质等。New STN数据库完全覆盖了CA（化学文摘）数据库的全部内容，且收录年限前移至1907年。</t>
+  </si>
+  <si>
+    <t>New Scientific and Technical Information Network（New STN科学与技术信息联机检索平台）CA</t>
+  </si>
+  <si>
+    <t>NSTL外文回溯期刊全文数据库</t>
+  </si>
+  <si>
+    <t>NSTL购买了WILEY、Springer、T&amp;F ST、OUP、IOP、Turpion、Nature、LWW、RSC等机构的回溯数据库。目前国内的协议用户可通过NSTL网站免费访问。</t>
+  </si>
+  <si>
+    <t>NSTL外文现刊全文数据库</t>
+  </si>
+  <si>
+    <t>国家科技图书文献中心（NSTL）自2000年起开始订购网络数据库为我国大陆非营利学术机构提供免费服务。目前国内的协议用户可通过NSTL网站免费访问近50个国外学协会、出版社的期刊或数值数据库。</t>
+  </si>
+  <si>
+    <t>OCLC Worldcat联合目录</t>
+  </si>
+  <si>
+    <t>中文/英语/日语/其他</t>
+  </si>
+  <si>
+    <t>“OCLC Worldcat联合目录”由OCLC出品，收录了OCLC成员图书馆编目的所有记录，括图书、期刊与杂志、报纸、地图、乐谱、手稿本、网络资源等。</t>
+  </si>
+  <si>
+    <t>OECD iLibrary经合组织在线图书馆</t>
+  </si>
+  <si>
+    <t>“OECD iLibrary”是经合组织推出的网络服务平台。我馆可访问OECD出品物、OECD统计数据和IEA国际能源机构统计数据三部分内容。</t>
+  </si>
+  <si>
+    <t>OverDrive/赛阅少儿数字图书馆</t>
+  </si>
+  <si>
+    <t>OverDrive是美国电子书、有声读物等下载资源的数字化内容经销商。我馆目前可访问7000余种该平台上的电子书、绘本、有声读物等。</t>
+  </si>
+  <si>
+    <t>Oxford Journals/牛津电子期刊数据库</t>
+  </si>
+  <si>
+    <t>“牛津电子期刊数据库”由牛津大学出版社出品，涵盖社会科学、艺术、文学、法律、医学、生命科学、数学、科学技术以及人文等多学科领域。读者可访问该平台部分期刊。</t>
+  </si>
+  <si>
+    <t>Oxford Scholarship Online/牛津在线学术专著数据库</t>
+  </si>
+  <si>
+    <t>“牛津在线学术专著数据库”由牛津大学出版社研发出品。我馆可访问该库9000余种电子图书专著，内容涵盖社会科学，人文科学，自然科学，医学等18个学科领域。</t>
+  </si>
+  <si>
+    <t>Palgrave Connect电子书</t>
+  </si>
+  <si>
+    <t>“Palgrave Connect电子书”由Palgrave出品。现该平台所有电子书都被整合到Springer电子图书文库中，在Springer平台上呈现。内容涵盖政治和国际研究、经济和金融、商务与和管理、历史、文学、语言和语言学、宗教和哲学、社会科学、教育学、传媒和文化、戏剧和表演等多学科领域。</t>
+  </si>
+  <si>
+    <t>PNAS/美国科学院院报</t>
+  </si>
+  <si>
+    <t>Proceedings of the National Academy of Sciences of the United States of America《美国科学院院报》（PNAS）是世界上被引用次数最多的综合学科刊物之一。1914年创刊，致力于前沿研究报告、学术评论、学科回顾及前瞻、学术论文以及美国国家科学学会学术动态的报道和出版。</t>
   </si>
   <si>
     <t>Project MUSE/MUSE电子期刊</t>
@@ -272,301 +527,191 @@
     <t>“EconLit”由美国经济学会发布。收录1886年以来世界范围内经济学及相关学科领域文献的书目记录，涵盖经济学理论研究与实践方面的全面信息，它是《Journal of Economic Literature (JEL)》的延伸版本，EconLit收录的文献范围广泛，包括学术期刊、图书、书评、学位论文及研究手稿等。</t>
   </si>
   <si>
+    <t>ProQuest/Library &amp; Information Science Abstracts (LISA)</t>
+  </si>
+  <si>
+    <t>“Library &amp; Information Science Abstracts (LISA)”由ProQuest公司出品。收录了图书馆学、信息理论、在线检索等领域的相关文献。</t>
+  </si>
+  <si>
+    <t>ProQuest/Materials Science &amp; Engineering Collection</t>
+  </si>
+  <si>
+    <t>“Materials Science &amp; Engineering Collection”由ProQuest公司出品。收录了涵盖材料科学与工程学各方面的全文文献及文摘资料。</t>
+  </si>
+  <si>
+    <t>ProQuest/ProQuest Dissertations &amp; Theses Global全球博硕士论文全文库 (PQDT Global)</t>
+  </si>
+  <si>
+    <t>“PQDT Global全球博硕士论文全文库”由ProQuest公司出品，收录了全球390多万篇学位论文全文及630多万篇学位论文文摘索引记录。每周更新，每年新增90,000篇论文全文。</t>
+  </si>
+  <si>
     <t>ProQuest/ProQuest Historical Newspapers: Chinese Newspapers Collection (CHNP)</t>
   </si>
   <si>
     <t>“Historical Newspapers: Chinese Newspapers Collection (CHNP)”由ProQuest出品。收录了从1832到1953年间出品的22份关于近现代中国的英文报纸，包括《北华捷报》/《字林西报》(The North -China Herald) (1850-1941)、《教务杂志》The Chinese Recorder (1868–1941)、《密勒氏评论报》The China Weekly Review(1917-1953)等。</t>
   </si>
   <si>
-    <t>Encyclopedia Britannica Online/大英百科全书</t>
-  </si>
-  <si>
-    <t>“Encyclopedia Britannica Online”（大英百科全书网络版）由不列颠百科全书公司出品。该库于1994年正式发布，超过13万篇百科文章，包含名人传记、图片、插图、视频、动画和音频剪辑，还包含电子书、原始文件、推荐网站、英语字典/词典词目、超过20年大英年鉴资料,数据每日更新,平均每月更新或修订一千多篇文章。</t>
-  </si>
-  <si>
-    <t>ISI/EMIS新兴市场信息服务</t>
-  </si>
-  <si>
-    <t>“ISI EMIS新兴市场数据库”由ISI公司出品。该库收录欧洲、拉美、亚洲的发展中国家和地区的新兴市场，提供新闻报道、企业财务报告、行业分析、股票报价、宏观预测等方面的信息。</t>
-  </si>
-  <si>
-    <t>JSTOR/西文过刊期刊</t>
-  </si>
-  <si>
-    <t>“JSTOR西文过刊期刊数据库”由Journal Storage出品。该库是一个以政治学、经济学、哲学、历史等人文社会学科为主，兼有一般学科主题共十几个领域代表性学术期刊的回溯全文库，共收录2900多种期刊。可浏览创刊号到最近两三年前的期刊全文。</t>
+    <t>ProQuest/The Women's Wear Daily Archive (WWD)</t>
+  </si>
+  <si>
+    <t>“The Women's Wear Daily Archive (WWD)”由Fairchild Fashion Media出品。涵盖了《Women's Wear Daily》自1910年至今的高清晰度的图像，提供各种时尚、美容以及零售工业的信息、商业性新闻及女性时尚趋势，有时尚圣经之称。数据更新延迟6个月。</t>
+  </si>
+  <si>
+    <t>ProQuest学位论文全文检索平台/ProQuest博硕士论文 (PQDD)</t>
+  </si>
+  <si>
+    <t>“PQDT学位论文全文库”由ProQuest公司出品，收录了来自欧美国家2000余所知名大学的100多万篇优秀博硕士论文。内容涵盖人文社科、自然科学等多学科。</t>
+  </si>
+  <si>
+    <t>RSC Ebook/英国皇家化学学会电子书</t>
+  </si>
+  <si>
+    <t>“英国皇家化学学会电子书”由英国皇家化学学会出品。该学会成立于1841年，是国际权威学术机构，出品的期刊及数据资源一向是化学领域的核心期刊和权威数据库。我馆可访问1968-2018年间的1500余种著作。内容涵盖分析化学、生物科学、食品科学、有机化学等领域。</t>
+  </si>
+  <si>
+    <t>RSC GOLD/英国皇家化学学会期刊数据库</t>
+  </si>
+  <si>
+    <t>“RSC GOLD电子期刊”由英国皇家化学学会出品。该库含全文电子刊50余种、4种数据库、《环境科学与技术丛书》电子丛书一套。</t>
+  </si>
+  <si>
+    <t>SAE Digital Library-Technical Papers/ 美国汽车工程师协会技术论文数据库</t>
+  </si>
+  <si>
+    <t>“SAE技术论文数据库”（SAE Technical Papers）由美国汽车工程师学会出品。收录了1998年迄今的报告全文35000余篇，以及SAE出品的标准、期刊论文等文献题录或文摘。内容涵盖汽车、航空、航天、船舶、移动机械等多领域。</t>
+  </si>
+  <si>
+    <t>SAGE Deep Backfile/SAGE回溯期刊数据库</t>
+  </si>
+  <si>
+    <t>“SAGE回溯期刊数据库”由SAGE出品公司出品。该库收录了SAGE出品的300余种学术期刊回溯全文。内容涵盖社会及人文科学、科技工程、生命科学和医学等领域。</t>
+  </si>
+  <si>
+    <t>SAGE Journals online/SAGE现刊数据库</t>
+  </si>
+  <si>
+    <t>“SAGE现刊数据库”由SAGE出品公司出品。该库收录了1999至今的由SAGE与全球245家专业学术协会合作出品800余种高品质学术期刊。内容涵盖教育学、心理学、社会学、传播学、临床医学、公共卫生与护理学、法学与刑罚学、政治与国际关系、经济管理、语言、文学与文化研究、历史、地理与环境科学、材料科学、工程学、药理学与毒理学、哲学、音乐、生命科学、城市规划与研究、信息科学等领域。</t>
+  </si>
+  <si>
+    <t>Springer Link/Springer电子期刊数据库</t>
+  </si>
+  <si>
+    <t>“SpringerLink电子期刊”由Springer Natural集团出品。我馆可访问部分电子期刊全文内容，内容回溯至2007年。</t>
+  </si>
+  <si>
+    <t>Springer Link/Springer电子期刊数据库斯普林格</t>
+  </si>
+  <si>
+    <t>Springer Link/Springer电子书</t>
+  </si>
+  <si>
+    <t>“SpringerLink电子书”由Springer Natural集团出品。我馆可访问该平台2005版权年开始的电子图书专著10万余种。内容涵盖自然科学、社会科学等综合性学科。</t>
+  </si>
+  <si>
+    <t>Springer Link/Springer电子书斯普林格</t>
+  </si>
+  <si>
+    <r>
+      <t>Statista</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CA+Consumer Insights</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Statista</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全球统计数据库是一个综合数据资料库，所提供的统计数据包括了世界主要国家和经济体，我馆订购该数据库中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Statista CA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Consumer Insights</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分。</t>
+    </r>
+  </si>
+  <si>
+    <t>statista（Consumer Insights）</t>
+  </si>
+  <si>
+    <t>Taylor &amp; Francis Online/Taylor &amp; Francis电子期刊数据库</t>
+  </si>
+  <si>
+    <t>“Taylor &amp; Francis电子期刊数据库”由Taylor &amp; Francis 集团出品。我馆购买了部分纸本刊，可以免费浏览对应的电子期刊。</t>
+  </si>
+  <si>
+    <t>Thomson Reuters/Web of Knowledge-Conference Proceedings Citation Index（CPCI）</t>
+  </si>
+  <si>
+    <t>CPCI（Conference Proceeding Citation Index，原名ISI Proceedings）由Clarivate Analytics(科睿唯安，原汤森路透)公司出品，包括科技会议录索引与社科会议录索引两部分，汇集了世界上最著名的会议、座谈、研究会和专题讨论会的会议录资料。</t>
   </si>
   <si>
     <t>Ulrich's Web Global Serials Directory/乌利希国际期刊指南</t>
   </si>
   <si>
     <t>乌利希国际期刊指南是著名的期刊目录，从1932年开始出品，覆盖900多个学科领域，收录了来自200个国家14万个出版商的期刊资料，包含超过40万种期刊的详细书目数据。包括ISSN、出品商、语言、主题、文摘和索引覆盖、全文数据库覆盖、目录和图书馆员所写评论等数据点。</t>
-  </si>
-  <si>
-    <t>Bridgeman艺术图书馆</t>
-  </si>
-  <si>
-    <t>“Bridgeman艺术图书馆数据库”收藏了来自于全球8,000多家博物馆、美术馆以及私人收藏、摄影家和艺术家的作品。目前共收录超过300万张图片，涉及艺术史、设计、建筑学、时尚、历史、地理、政治、科学、人类学等多个学科领域。</t>
-  </si>
-  <si>
-    <t>WGSN/Fashion</t>
-  </si>
-  <si>
-    <t>“Fashion”由WGSN出品。WGSN是全球著名的在线时尚预测和潮流趋势分析机构，为时装、时尚、设计以及零售等各大产业提供具创意的潮流资讯和商业信息。该库目前提供超过2万份专业报告、超过1200万幅图片和设计素材。该数据库在上海图书馆淮海馆及上海图书馆东馆特定阅览室使用。</t>
-  </si>
-  <si>
-    <t>WGSN/Interiors</t>
-  </si>
-  <si>
-    <t>“Interiors”由WGSN出品。是一个针对室内用品市场、家居市场以及消费市场，提供业界潮流预测、生活时尚分析、产品设计工具的网站，涉及从家具、寝具到装饰性配饰和纺织品，提供超过7千份专业报告、超过150万幅图片和设计素材。该数据库在上海图书馆淮海馆及上海图书馆东馆特定阅览室使用。</t>
-  </si>
-  <si>
-    <t>月旦知识库</t>
-  </si>
-  <si>
-    <t>“月旦知识库”由台湾元照知识集团出品。该库下设期刊文献、图书文献、词典工具书、两岸常用法规、精选判解、教学案例、博硕论文索引、大陆文献索引库、题库讲座等共九大子库，收录了超过70万笔全文数据。</t>
-  </si>
-  <si>
-    <t>Cambridge Journals Digital Archive/剑桥电子期刊回溯库2011版</t>
-  </si>
-  <si>
-    <t>“剑桥电子期刊数据库（回溯版）”由剑桥大学出版社出品。电子期刊回溯数据库2011版收录了207种学术期刊，其中社会科学类期刊131种，自然科学类76种，自创刊年（1770年）至1996年左右、共计63万余篇期刊全文、430余万页期刊内容。涵盖人文科学、社会科学以及自然科学等领域。国家图书馆2012年以国家授权方式引进了该库，我馆可以免费使用。</t>
-  </si>
-  <si>
-    <t>Cambridge Journals Online/剑桥电子期刊数据库</t>
-  </si>
-  <si>
-    <t>“剑桥电子期刊数据库”由剑桥大学出版社出品。现已收录400余种学术期刊，内容涉及科学技术、社会科学与人文科学各领域。</t>
-  </si>
-  <si>
-    <t>Elsevier/CELL电子期刊</t>
-  </si>
-  <si>
-    <t>“《CELL》（《细胞》）”由Elsevier公司旗下的细胞出版社(Cell Press)出品，是关于生命科学领域最新研究发现的世界顶尖杂志。我馆可访问其中19种刊物。</t>
-  </si>
-  <si>
-    <t>Elsevier/CELL电子期刊爱思唯尔细胞</t>
-  </si>
-  <si>
-    <t>De Gruyter/德古意特电子书（Pre2015）</t>
-  </si>
-  <si>
-    <t>德古意特出版社（Walter De Gruyter）是一家拥有200多年历史的综合性学术出版社。我馆于2016年购买了德古意特出版社联合普林斯顿大学出版社、宾夕法尼亚大学出版社、Bohlau出版社等近10家出版社的组合电子书包，共计10000余种电子图书。</t>
-  </si>
-  <si>
-    <t>Elsevier/Reaxys</t>
-  </si>
-  <si>
-    <t>“Reaxys”由Elsevier出品，是优化化学合成路线的研发工具，为CrossFire Beilstein/Gmelin的升级产品,也是世界上较全的化学数值和事实性数据库。该工具将贝尔斯坦（Beilstein）、盖墨林（Gmelin）数据库、专利化学数据库（Patent）以及化学相关期刊的内容整合为统一的资源,包含了2800多万个反应、1800多万种物质、400多万条文献。同时，Reaxys还集成eMolecules和PubChem数据库内容，提供统一检索和访问。</t>
-  </si>
-  <si>
-    <t>Elsevier/Reaxys爱思唯尔</t>
-  </si>
-  <si>
-    <t>Elsevier/ScienceDirect books电子书</t>
-  </si>
-  <si>
-    <t>“ScienceDirect电子图书”由Elsevier出品。我馆可访问该库25000余种电子图书专著，内容涵盖基础自然科学领域如数学、物理、化学、地球、环境等，以及工程技术、生命科学和社会科学领域。部分图书最早可以回溯至1900年代。</t>
-  </si>
-  <si>
-    <t>Elsevier/ScienceDirect books电子书爱思唯尔</t>
-  </si>
-  <si>
-    <t>Elsevier/ScienceDirect自由全文库（含回溯）</t>
-  </si>
-  <si>
-    <t>ScienceDirect自由全文库由Elsevier公司出品。收录了全球超过25%的科学、技术和医学方面的文献，其中被SCI收录的期刊占核心期刊品种的1/4。我馆读者目前可访问自由全文库所有期刊自首卷首期至今的全部内容。</t>
-  </si>
-  <si>
-    <t>Elsevier/ScienceDirect自由全文库（含回溯）爱思唯尔</t>
-  </si>
-  <si>
-    <t>Elsevier/Scopus</t>
-  </si>
-  <si>
-    <t>“Scopus”由Elsevier出品，收录了来自全球4000家出版社的近2万期刊，是全球最大的文摘和引文数据库，为科研人员提供一站式获取科技文献的平台。</t>
-  </si>
-  <si>
-    <t>Elsevier/Scopus爱思唯尔</t>
-  </si>
-  <si>
-    <t>Emerald/Emerald管理学数据库(Management Xtra)</t>
-  </si>
-  <si>
-    <t>Emerald管理学数据库由Emerald出版社出品。该库包含400多种专家评审的管理学术期刊，涉及会计金融与经济学、商业管理与战略、公共政策与环境管理等学科。</t>
-  </si>
-  <si>
-    <t>掌阅精选</t>
-  </si>
-  <si>
-    <t>“掌阅精选”数字图书馆是掌阅科技专门大众读者推出的高品质阅读服务平台。掌阅科技已与国内外1000多家出版公司、文学网站等建立了良好的合作关系，内容资源丰富多样，涵盖“图书、有声、漫画、杂志”等，其中电子书包含“小说、文学、青春、影视原著、历史、传记、社会科学、心理、经管、旅游、养生/运动、孕产育儿、艺术、医学、法律、政治军事、工业、科普、互联网+、生活”等共21个大部类，60多个图书类别，可以满足不同用户的阅读兴趣。</t>
-  </si>
-  <si>
-    <t>ProQuest/ProQuest Dissertations &amp; Theses Global全球博硕士论文全文库 (PQDT Global)</t>
-  </si>
-  <si>
-    <t>“PQDT Global全球博硕士论文全文库”由ProQuest公司出品，收录了全球390多万篇学位论文全文及630多万篇学位论文文摘索引记录。每周更新，每年新增90,000篇论文全文。</t>
-  </si>
-  <si>
-    <t>Emerald/Emerald回溯期刊数据库</t>
-  </si>
-  <si>
-    <t>“Emerald回溯期刊数据库”由Emerald出版社出品。该库包含180种全文期刊，所有期刊均回溯至首卷首期，最早可回溯至1898年，超过11万篇全文。内容涉及会计、金融与法律，人力资源，管理科学与政策，图书馆情报学，工程学等领域。国家图书馆2010年以国家授权方式引进了该库，我馆可以免费使用。</t>
-  </si>
-  <si>
-    <t>IGI Ebook/IGI 电子书</t>
-  </si>
-  <si>
-    <t>“IGI Global books”由IGI出版社出品。我馆可访问该库4000余种电子图书专著，内容涵盖商务与管理、信息科技、计算机科学与信息技术、教育科技、环境科学与技术、政务管理，图书馆信息科技、传媒与通信科技、医疗与健康卫生、生命科学技术等11个学科领域。</t>
-  </si>
-  <si>
-    <t>IOP/英国皇家物理学会电子书</t>
-  </si>
-  <si>
-    <t>“IOP电子书”由IOPscience (英国皇家物理学会)出品。我馆可访问自2014年起该社出品的电子图书专著。</t>
-  </si>
-  <si>
-    <t>IOP/英国皇家物理学会期刊数据库</t>
-  </si>
-  <si>
-    <t>“IOP期刊数据库”由英国皇家物理学会(Institute of Physics)出品。我馆可访问IOP Science Extra期刊包。</t>
-  </si>
-  <si>
-    <t>NSTL外文回溯期刊全文数据库</t>
-  </si>
-  <si>
-    <t>NSTL购买了WILEY、Springer、T&amp;F ST、OUP、IOP、Turpion、Nature、LWW、RSC等机构的回溯数据库。目前国内的协议用户可通过NSTL网站免费访问。</t>
-  </si>
-  <si>
-    <t>NSTL外文现刊全文数据库</t>
-  </si>
-  <si>
-    <t>国家科技图书文献中心（NSTL）自2000年起开始订购网络数据库为我国大陆非营利学术机构提供免费服务。目前国内的协议用户可通过NSTL网站免费访问近50个国外学协会、出版社的期刊或数值数据库。</t>
-  </si>
-  <si>
-    <t>Oxford Journals/牛津电子期刊数据库</t>
-  </si>
-  <si>
-    <t>“牛津电子期刊数据库”由牛津大学出版社出品，涵盖社会科学、艺术、文学、法律、医学、生命科学、数学、科学技术以及人文等多学科领域。读者可访问该平台部分期刊。</t>
-  </si>
-  <si>
-    <t>Oxford Scholarship Online/牛津在线学术专著数据库</t>
-  </si>
-  <si>
-    <t>“牛津在线学术专著数据库”由牛津大学出版社研发出品。我馆可访问该库9000余种电子图书专著，内容涵盖社会科学，人文科学，自然科学，医学等18个学科领域。</t>
-  </si>
-  <si>
-    <t>Palgrave Connect电子书</t>
-  </si>
-  <si>
-    <t>“Palgrave Connect电子书”由Palgrave出品。现该平台所有电子书都被整合到Springer电子图书文库中，在Springer平台上呈现。内容涵盖政治和国际研究、经济和金融、商务与和管理、历史、文学、语言和语言学、宗教和哲学、社会科学、教育学、传媒和文化、戏剧和表演等多学科领域。</t>
-  </si>
-  <si>
-    <t>RSC Ebook/英国皇家化学学会电子书</t>
-  </si>
-  <si>
-    <t>“英国皇家化学学会电子书”由英国皇家化学学会出品。该学会成立于1841年，是国际权威学术机构，出品的期刊及数据资源一向是化学领域的核心期刊和权威数据库。我馆可访问1968-2018年间的1500余种著作。内容涵盖分析化学、生物科学、食品科学、有机化学等领域。</t>
-  </si>
-  <si>
-    <t>SAGE Deep Backfile/SAGE回溯期刊数据库</t>
-  </si>
-  <si>
-    <t>“SAGE回溯期刊数据库”由SAGE出品公司出品。该库收录了SAGE出品的300余种学术期刊回溯全文。内容涵盖社会及人文科学、科技工程、生命科学和医学等领域。</t>
-  </si>
-  <si>
-    <t>SAGE Journals online/SAGE现刊数据库</t>
-  </si>
-  <si>
-    <t>“SAGE现刊数据库”由SAGE出品公司出品。该库收录了1999至今的由SAGE与全球245家专业学术协会合作出品800余种高品质学术期刊。内容涵盖教育学、心理学、社会学、传播学、临床医学、公共卫生与护理学、法学与刑罚学、政治与国际关系、经济管理、语言、文学与文化研究、历史、地理与环境科学、材料科学、工程学、药理学与毒理学、哲学、音乐、生命科学、城市规划与研究、信息科学等领域。</t>
-  </si>
-  <si>
-    <t>Springer Link/Springer电子期刊数据库</t>
-  </si>
-  <si>
-    <t>“SpringerLink电子期刊”由Springer Natural集团出品。我馆可访问部分电子期刊全文内容，内容回溯至2007年。</t>
-  </si>
-  <si>
-    <t>Springer Link/Springer电子期刊数据库斯普林格</t>
-  </si>
-  <si>
-    <t>Springer Link/Springer电子书</t>
-  </si>
-  <si>
-    <t>“SpringerLink电子书”由Springer Natural集团出品。我馆可访问该平台2005版权年开始的电子图书专著10万余种。内容涵盖自然科学、社会科学等综合性学科。</t>
-  </si>
-  <si>
-    <t>Springer Link/Springer电子书斯普林格</t>
-  </si>
-  <si>
-    <t>Taylor &amp; Francis Online/Taylor &amp; Francis电子期刊数据库</t>
-  </si>
-  <si>
-    <t>“Taylor &amp; Francis电子期刊数据库”由Taylor &amp; Francis 集团出品。我馆购买了部分纸本刊，可以免费浏览对应的电子期刊。</t>
-  </si>
-  <si>
-    <t>《申报》</t>
-  </si>
-  <si>
-    <t>“《申报》数据库”由台湾得泓公司出品。收录了1872-1949年间的资料约2,590,000多篇全文,还分别收录了汉口版、香港版与广告版。</t>
-  </si>
-  <si>
-    <t>中国知网/中国科技项目创新成果鉴定意见数据库</t>
-  </si>
-  <si>
-    <t>“收录正式登记的中国科技成果，及专家组对该项成果的推广应用前景与措施、主要技术文件目录及来源、测试报告和鉴定意见等内容的全文鉴定数据。涵盖数学物理力学天地生、化学化工冶金环境矿业、机电航空交通水利建筑能源、农业、医药卫生、电子技术及信息科学等多学科。我馆收录年限至2017年。</t>
-  </si>
-  <si>
-    <t>中国知网/中国科技项目创新成果鉴定意见数据库清华同方</t>
-  </si>
-  <si>
-    <t>中文社会科学引文索引数据库（CSSCI）</t>
-  </si>
-  <si>
-    <t>“中文社会科学引文索引数据库”由南京大学中国社会科学研究评价中心开发研制，用于检索中文人文社会科学领域的论文收录和被引用情况。</t>
-  </si>
-  <si>
-    <t>尚唯产品样本数据库</t>
-  </si>
-  <si>
-    <t>该库收录全球知名大型工业企业的企业信息、企业产品目录、产品一般性说明书、产品标准图片、产品技术资料、产品CAD设计图、产品视频/音频资料、产品样本等。涵盖通用设备，专用设备，交通运输设备，电气机械和器材，通信设备、计算机及其他电子设备，仪器仪表及文化、办公用机械，材料与物资等各领域。</t>
-  </si>
-  <si>
-    <t>国务院发展研究中心信息网/国研网（教育版部分+世经版）</t>
-  </si>
-  <si>
-    <t>国研网是国务院发展研究中心主管、北京国研网信息股份有限公司承办的大型经济类专业网站，汇集、整合了国内外经济金融领域的经济信息和研究成果，提供国内外宏观环境、经济金融运行特征、发展趋势及政策走向咨询参考。</t>
-  </si>
-  <si>
-    <t>中国知网/中国经济社会大数据研究平台</t>
-  </si>
-  <si>
-    <t>囊括了我国所有中央级、省级及其主要地市级统计年鉴和各类统计资料，提供挖掘分析服务。</t>
-  </si>
-  <si>
-    <t>中国知网/中国经济社会大数据研究平台清华同方</t>
-  </si>
-  <si>
-    <t>中国资讯行（infobank）</t>
-  </si>
-  <si>
-    <t>收录了从中央到地方1000多种综合性财经类主流媒体，包括报纸、杂志、学报、书籍和各类年鉴，以及海外综合类、财经类报纸，政府或民间专业信息机构的宏观经济分析或行业报告，反映了全国各地区、各行业的经济动态。</t>
-  </si>
-  <si>
-    <t>瀚堂典藏数据库</t>
-  </si>
-  <si>
-    <t>该库以精准校对的小学工具（文字、音韵、训诂）、古代类书、出土文献类资料为基础，大量纳入包括经史子集四部、中医药典籍、古典小说与戏曲、敦煌文献、儒、释、道等历代传世文献，以及大型丛书、史书、方志等，涵盖文史哲等专业的教学和研究工作中所应用到的专业古籍文献资料。</t>
-  </si>
-  <si>
-    <t>中华再造善本数据库（一、二期）</t>
-  </si>
-  <si>
-    <t>“中华再造善本数据库”由国家图书馆出版社出品，将“中华再造善本工程”中影印出品的珍贵古籍善本进行图像数字化，自唐迄清分为四编，并另设“少数民族文字编”。各编按传统的经、史、子、集、丛编次类归。</t>
-  </si>
-  <si>
-    <t>中国历史人物传记资源库</t>
-  </si>
-  <si>
-    <t>“中国历史人物传记资源库”由国家图书馆出版社与北京大学数据分析研究中心联合研制。该库为大型历史人物传记文献资料库。</t>
   </si>
   <si>
     <r>
@@ -613,10 +758,181 @@
     <t>WGSN/Access（原Insight）</t>
   </si>
   <si>
+    <t>WGSN/Fashion</t>
+  </si>
+  <si>
+    <t>“Fashion”由WGSN出品。WGSN是全球著名的在线时尚预测和潮流趋势分析机构，为时装、时尚、设计以及零售等各大产业提供具创意的潮流资讯和商业信息。该库目前提供超过2万份专业报告、超过1200万幅图片和设计素材。该数据库在上海图书馆淮海馆及上海图书馆东馆特定阅览室使用。</t>
+  </si>
+  <si>
+    <t>WGSN/Interiors</t>
+  </si>
+  <si>
+    <t>“Interiors”由WGSN出品。是一个针对室内用品市场、家居市场以及消费市场，提供业界潮流预测、生活时尚分析、产品设计工具的网站，涉及从家具、寝具到装饰性配饰和纺织品，提供超过7千份专业报告、超过150万幅图片和设计素材。该数据库在上海图书馆淮海馆及上海图书馆东馆特定阅览室使用。</t>
+  </si>
+  <si>
+    <t>Wiley E-Textbook电子教材</t>
+  </si>
+  <si>
+    <t>“Wiley电子教材”精选了Wiley国际知名原版教材。我馆可访问2000余种。</t>
+  </si>
+  <si>
+    <t>Wiley Online Library/Wiley Reference Works 在线参考工具书</t>
+  </si>
+  <si>
+    <t>“Wiley在线参考工具书”由Wiley-Blackwell出品。我馆可访问该库200余种电子工具书。内容涵盖数学与统计学、物理学、化学、生命科学、医学、计算机科学、工程学、地球与环境科学、 材料科学、农林牧业、经济管理、人文科学、社会科学等学科领域。</t>
+  </si>
+  <si>
+    <t>Wiley Online Library/Wiley电子期刊数据库</t>
+  </si>
+  <si>
+    <t>“Wiley电子期刊数据库”由Wiley-Blackwell出品。我馆可访问约1000种Wiley-Blackwell电子期刊的全文内容，回溯到1997年，内容涵化学、工程等领域。</t>
+  </si>
+  <si>
+    <t>Wiley Online Library/Wiley电子书</t>
+  </si>
+  <si>
+    <t>“Wiley电子书”由Wiley-Blackwell出品。我馆可访问该平台2万余种电子图书专著，内容涵盖化学、生命科学、物理学、人文社科、电子电器工程、数学和统计学等多学科领域。</t>
+  </si>
+  <si>
+    <t>WorldSciNet世界科技电子图书</t>
+  </si>
+  <si>
+    <t>“世界科技电子图书”由世界科技出版公司（World Scientific）出品。我馆可访问该库自1981年至2020年出版的8000余种经典英文科技专著图书（不包括会议文集、教材以及其他未电子化的经典英文科技著作）。</t>
+  </si>
+  <si>
+    <t>WorldSciNet世界科技电子图书World Scientific</t>
+  </si>
+  <si>
+    <t>WorldSciNet世界科技期刊数据库</t>
+  </si>
+  <si>
+    <t>“世界科技期刊网（WorldSciNet）”由世界科技出品公司（World Scientific）出品。我馆可访问库内120种科技期刊2017-2023年全文内容。</t>
+  </si>
+  <si>
+    <t>WorldSciNet世界科技期刊数据库World Scientific</t>
+  </si>
+  <si>
+    <t>“知识视界video library”视频教育资源库</t>
+  </si>
+  <si>
+    <t>多媒体</t>
+  </si>
+  <si>
+    <t>“知识视界video library”视频教育资源库由武汉缘来文化有限公司出品。收录来自探索DISCOVERY、德国国家纪录片制作中心DW、澳大利亚Classroom Video、美国SHCLESSINGER、英国BBC等国际著名纪录片制作中心(机构)出品的视频产品，涵盖自然科学、人文历史、医学保健、工程技术、军事侦探、专题讲座、语言学习等领域。</t>
+  </si>
+  <si>
+    <t>《申报》</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>“《申报》数据库”由台湾得泓公司出品。收录了1872-1949年间的资料约2,590,000多篇全文,还分别收录了汉口版、香港版与广告版。</t>
+  </si>
+  <si>
+    <t>《文渊阁四库全书》电子版</t>
+  </si>
+  <si>
+    <t>“《文渊阁四库全书》电子版”以文渊阁《四库全书》为原始文本，收书三万六千余册，七万九千余卷，约7亿汉字，包括历史、文学、哲学、社会科学、自然科学等各方面内容。</t>
+  </si>
+  <si>
+    <t>镜像</t>
+  </si>
+  <si>
+    <t>博看畅销期刊数据库</t>
+  </si>
+  <si>
+    <t>“博看期刊数据库”由武汉鼎森电子科技有限公司出品。我馆可访问库内3000余种原版原貌电子期刊原文。内容涵盖时政新闻、文学文摘、体育养生、文化科普、健康卫生、时尚娱乐、女性家庭、金融理财、艺术品味、旅游民俗、医学医药等领域。</t>
+  </si>
+  <si>
+    <t>超星名师讲坛</t>
+  </si>
+  <si>
+    <t>“超星名师讲坛”由北京世纪超星信息技术发展有限责任公司出品。该库为专业学术类视频库，内容涵盖文学、法律政治、管理学、经济学、历史学等多学科领域。</t>
+  </si>
+  <si>
+    <t>东京审判文献数据库（一期）</t>
+  </si>
+  <si>
+    <t>“东京审判文献数据库（一期）”由上海交通大学出版社出品，一期内容包括英文版《远东国际军事法庭庭审记录》、日文版《远东国际军事法庭证据文献》、庭审现场、人物等照片及部分视频资料。</t>
+  </si>
+  <si>
+    <t>读秀学术搜索</t>
+  </si>
+  <si>
+    <t>“读秀学术搜索”作为文献搜索及获取服务平台，文献类型包括图书、期刊、学位论文、会议论文等，可提供章节和全文检索、部分文献试读等多种功能。</t>
+  </si>
+  <si>
+    <t>国别区域与全球治理数据库</t>
+  </si>
+  <si>
+    <t>中文/英语</t>
+  </si>
+  <si>
+    <t>该资源是社会科学文献出版社重点打造的学术型数字产品，对接国别区域这一重点新兴学科，围绕国别研究、区域研究、国际组织、全球智库等领域，全方位整合基础信息、一手资料、科研成果。</t>
+  </si>
+  <si>
+    <t>网络/镜像</t>
+  </si>
+  <si>
+    <t>国家法规数据库</t>
+  </si>
+  <si>
+    <t>由全国人大常委会法制工作委员会、国务院法制局、最高人民法院、最高人民检察院、国家信息中心共同开发并联合各省市信息中心及有关部委共同维护。内容包含全国人大法律、国务院行政法规、最高人民法院和最高人民检察院司法解释、裁判文书、各部门规章、各地地方性法规和地方政府规章，以及我国参与的国际条约和公约。</t>
+  </si>
+  <si>
+    <t>国家建筑标准设计图集电子书库（国标电子书库）</t>
+  </si>
+  <si>
+    <t>由住房和城乡建设部唯一授权的国家建筑标准设计归口管理和组织编制单位中国建筑标准设计研究院权威出版。以电子化形式集成了国家建筑标准设计60多年来的技术成果，收录了国家建筑标准设计图集、全国民用建筑工程设计技术措施等多项技术资源。我馆订购国家建筑标准设计图集，提供五个并发用户。</t>
+  </si>
+  <si>
+    <t>国务院发展研究中心信息网/国研网（教育版部分+世经版）</t>
+  </si>
+  <si>
+    <t>国研网是国务院发展研究中心主管、北京国研网信息股份有限公司承办的大型经济类专业网站，汇集、整合了国内外经济金融领域的经济信息和研究成果，提供国内外宏观环境、经济金融运行特征、发展趋势及政策走向咨询参考。</t>
+  </si>
+  <si>
+    <t>瀚堂典藏数据库</t>
+  </si>
+  <si>
+    <t>该库以精准校对的小学工具（文字、音韵、训诂）、古代类书、出土文献类资料为基础，大量纳入包括经史子集四部、中医药典籍、古典小说与戏曲、敦煌文献、儒、释、道等历代传世文献，以及大型丛书、史书、方志等，涵盖文史哲等专业的教学和研究工作中所应用到的专业古籍文献资料。</t>
+  </si>
+  <si>
+    <t>汇雅电子图书</t>
+  </si>
+  <si>
+    <t>“汇雅电子图书”由北京世纪超星信息技术发展有限责任公司出品。我馆可访问该库130万种中文电子图书专著。内容涵盖人文社科、自然科学等多学科领域。</t>
+  </si>
+  <si>
+    <t>京东读书专业版</t>
+  </si>
+  <si>
+    <t>京东读书专业版的资源共分为 22 个一级分类，170多个二级分类，涉及哲学、经济学、法学、文学、历史学、医学、管理学、艺术、工业科技等十多个学科，现有中文电子图书约 20万种。</t>
+  </si>
+  <si>
+    <t>九星时代触摸屏报刊阅读系统V4.0</t>
+  </si>
+  <si>
+    <t>九星时代触摸屏报刊阅读系统V4.0是北京九星时代科技股份有限公司自主研发供触摸屏上使用的电子报刊阅读系统。</t>
+  </si>
+  <si>
+    <t>库客数字音乐图书馆</t>
+  </si>
+  <si>
+    <t>“库客数字音乐图书馆”由北京库客音乐股份有限公司出品。我馆订购了古典音乐和剧院模块，收录曲目近12万余首，剧院视频1千余集。</t>
+  </si>
+  <si>
     <t>律商网（法规案例+法律评论）</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Lexis China</t>
     </r>
     <r>
@@ -666,28 +982,22 @@
     </r>
   </si>
   <si>
-    <t>statista（Consumer Insights）</t>
-  </si>
-  <si>
-    <t>Statista全球统计数据库是一个综合数据资料库，所提供的统计数据包括了世界主要国家和经济体，我馆订购该数据库中的Statista CA和Consumer Insights部分。</t>
-  </si>
-  <si>
-    <t>Thomson Reuters/Web of Knowledge-Conference Proceedings Citation Index（CPCI）</t>
-  </si>
-  <si>
-    <t>CPCI（Conference Proceeding Citation Index，原名ISI Proceedings）由Clarivate Analytics(科睿唯安，原汤森路透)公司出品，包括科技会议录索引与社科会议录索引两部分，汇集了世界上最著名的会议、座谈、研究会和专题讨论会的会议录资料。</t>
-  </si>
-  <si>
-    <t>AIAA Conference Proceedings/ 美国航空航天学会报告数据库(AIAA)</t>
-  </si>
-  <si>
-    <t>“AIAA报告”由美国航空航天学会（American Institute of Aeronautics and Astronautics）出品，共收录报告15000多篇。内容涵盖航空航天领域的科学、技术、工程、政策和标准等最新研究成果和技术创新。</t>
-  </si>
-  <si>
-    <t>Books in Print/在版书目(GBIP)</t>
-  </si>
-  <si>
-    <t>“Global Books In Prints(GBIP)”由RR Bowker LLC公司出品，是全球最大的网络图书信息查询系统，涵盖全球逾在版、绝版以及即将出品的纸本图书、电子图书、音像以及视频资料信息。</t>
+    <t>皮书数据库</t>
+  </si>
+  <si>
+    <t>该资源是由社会科学文献出版社出品，以大型连续性系列皮书为基础，内容覆盖80余个国家、30个国际区域及国际组织，以及中国28个省级行政区、20个区域经济体、200个地级及以上行政区，涉及100多个行业。</t>
+  </si>
+  <si>
+    <t>趣悦读少儿数字图书馆</t>
+  </si>
+  <si>
+    <t>“趣悦读少儿数字图书馆”包括“才智小天地”和“益智动画馆”。“才智小天地”是为学龄前儿童的学前教育而量身定制的专业数字产品，是学龄前儿童教育的学习教材。“益智动画馆”是国内内容丰富的数字动画片库，包含国内主流知名的动画内容，所有内容均绿色健康并具有合法授权，内容包括国学类、幽默类、探险类、益智类等。</t>
+  </si>
+  <si>
+    <t>人民日报图文数据库</t>
+  </si>
+  <si>
+    <t>“人民日报图文数据库”收录了人民日报1946年创刊至今的新闻报道。</t>
   </si>
   <si>
     <t>日本电子情报通信学会技术研究报告数据库</t>
@@ -699,28 +1009,178 @@
     <t>日本电子情报通信学会技术研究报告由日本电子情报通信学会(IEICE)出品，主要为该学会出版的技术研究报告成果。</t>
   </si>
   <si>
+    <t>软件通</t>
+  </si>
+  <si>
+    <t>软件通采用微课形式将众多优质数字视频教育资源有机串联在一起，是通过计算机视频快速学习和精通掌握各种主流软件操作技能的按需学习和自主学习数据库系统，也是一个面向信息化应用技术实用技能的大规模实践学习型数据库系统。</t>
+  </si>
+  <si>
+    <t>尚唯产品样本数据库</t>
+  </si>
+  <si>
+    <t>该库收录全球知名大型工业企业的企业信息、企业产品目录、产品一般性说明书、产品标准图片、产品技术资料、产品CAD设计图、产品视频/音频资料、产品样本等。涵盖通用设备，专用设备，交通运输设备，电气机械和器材，通信设备、计算机及其他电子设备，仪器仪表及文化、办公用机械，材料与物资等各领域。</t>
+  </si>
+  <si>
+    <t>少儿多媒体图书馆</t>
+  </si>
+  <si>
+    <t>《少儿多媒体图书馆》资源分为幼教、绘本、绘本导读、语文、数学、英语、舞蹈、音乐、美术、百科、科学探索、诗词、国学等多个方向。主要分为绘声绘色、国学文化、科普百科、艺术培养、中小课堂、益智互动、家校共育几大模块，侧重于关注少儿的兴趣培养、成长教育以及家校共育，打造快乐型、自主型、互动型的学习平台。</t>
+  </si>
+  <si>
+    <t>书同文古籍数据库/《十通》</t>
+  </si>
+  <si>
+    <t>中国历代典章制度的大型工具书，由十部书名中带有"通"字的古典文献组成。</t>
+  </si>
+  <si>
+    <t>书同文古籍数据库/《四部丛刊》</t>
+  </si>
+  <si>
+    <t>该书电子版底本采用北京大学图书馆善本部馆藏上海涵芬楼景印《四部丛刊》。</t>
+  </si>
+  <si>
+    <t>书同文古籍数据库/清会典</t>
+  </si>
+  <si>
+    <t>囊括了汉文《大清五部会典》的全部内容，是清代重要典章制度汇编，是研究清代政治、经济、军事等制度和国家政令的重要史料。</t>
+  </si>
+  <si>
+    <t>书同文古籍数据库/清实录</t>
+  </si>
+  <si>
+    <t>采用中国第一历史档案馆馆藏《实录》藏本（兼辅以少量珍贵存世藏本），共计4447卷，以太祖高皇帝至德宗景皇帝十一朝《实录》为主体。</t>
+  </si>
+  <si>
+    <t>书同文古籍数据库/四部丛刊（09增补版）</t>
+  </si>
+  <si>
+    <t>原有《四部丛刊》着眼于选择宋元明珍本，而本次新增补内容选用《四部备要》全部内容，更偏重于实用，选取了一亿三千万字较有代表性的校本、注本，是学习和研究古代文献的常备书籍，更是文史工作者、学科学生基础研究之利器。</t>
+  </si>
+  <si>
+    <t>书同文古籍数据库/中国历代石刻史料汇编</t>
+  </si>
+  <si>
+    <t>“中国历代石刻史料汇编”收录了一万五千余篇石刻文献，并附有历代金石学家撰写的考释文字，总计1150万字。</t>
+  </si>
+  <si>
+    <t>万方全球智库</t>
+  </si>
+  <si>
+    <t>万方全球智库以全球顶级智库机构为目标，汇集全球顶级智库的研究成果、智库动态、智库机构、智库专家等内容。</t>
+  </si>
+  <si>
+    <t>万方数据/中国地方志数据库</t>
+  </si>
+  <si>
+    <t>以地方志为核心资源，全面系统整合我国现有新旧方志文献资源，实现新旧方志统一检索，提供地图找志、可按地区、时间/朝代、专辑等方式来查找文献。</t>
+  </si>
+  <si>
+    <t>万方数据/中国学术会议文献数据库</t>
+  </si>
+  <si>
+    <t>会议资源包括中文会议和外文会议，中文会议收录始于1982年，外文会议主要来源于NSTL外文文献数据库，收录了1985年以来世界各主要学协会、出版机构出版的学术会议论文。</t>
+  </si>
+  <si>
+    <t>万方数据/中国学术期刊数据库</t>
+  </si>
+  <si>
+    <t>包含8000余种期刊，其中包含北京大学、中国科学技术信息研究所、中国科学院文献情报中心、南京大学、中国社会科学院历年收录的核心期刊3300余种，年增300万篇，每天更新，涵盖自然科学、工程技术、医药卫生、农业科学、哲学政法、社会科学、科教文艺等各个学科。</t>
+  </si>
+  <si>
+    <t>万方数据/中国学位论文全文数据库</t>
+  </si>
+  <si>
+    <t>收录始于1980年，年增35余万篇，涵盖基础科学、理学、工业技术、人文科学、社会科学、医药卫生、农业科学、交通运输、航空航天和环境科学等各学科领域。</t>
+  </si>
+  <si>
+    <t>维普资讯/中文科技期刊数据库</t>
+  </si>
+  <si>
+    <t>该库收录了1989至今近一万五千余种国内期刊文献，内容涵盖社会科学、自然科学、工程技术、农业科学、医药卫生、经济管理、教育科学和图书情报等领域。</t>
+  </si>
+  <si>
+    <t>新东方多媒体学习库</t>
+  </si>
+  <si>
+    <t>“新东方多媒体学习库”由新东方教育科技集团出品。该库包括应用外语类，国内考试类，出国考试类，实用技能等类六大类培训课程，涵盖了大学四六级、BEC初中级、中高口 、TOEFL、GRE、GMAT和研究生入学考试及其他多种非语言类课程。</t>
+  </si>
+  <si>
+    <t>新东方多纳智慧魔方</t>
+  </si>
+  <si>
+    <t>“新东方多纳智慧魔方”由新东方教育科技集团出品。以互动、游戏、娱乐等方式辅助少儿英语、数学、科学、汉字、艺术、故事学习。</t>
+  </si>
+  <si>
+    <t>新东方微课堂</t>
+  </si>
+  <si>
+    <t>微课堂是新东方在线针对微学习、微课程的趋势推出的一款以视频为核心资源的学习平台产品，其定位为基于应用场景的语言应用百科。微课堂课程体系包括口语、商务、留学考试、国内应试、小语种等八大类，知识点超过5000个。</t>
+  </si>
+  <si>
+    <t>新东方悦读汇</t>
+  </si>
+  <si>
+    <t>“新东方悦读汇（2016）”由新东方教育科技集团出品。涵盖奇闻趣事、精彩图片、经典段子、影视音乐、英语学习、犀利评论等内容。该资源需使用支持flash的浏览器访问，并开启IE兼容模式。</t>
+  </si>
+  <si>
+    <t>新东方中小学数字图书馆</t>
+  </si>
+  <si>
+    <t>“中小学数字图书馆”由新东方教育科技集团出品，内容涵盖小学，初中，高中九个学科的上百种课程及十万集视频及题库。提供在线学习、测评、考试，名师视频，线上、线下互动。</t>
+  </si>
+  <si>
+    <t>雅昌艺术图书数据库</t>
+  </si>
+  <si>
+    <t>“雅昌艺术图书数据库”由雅昌文化集团出品。收录了中国乃至世界各大艺术类出版社、博物馆、美术馆等艺术机构及艺术家最全面、最优秀的艺术图书资源，包括书画、油画、版画、雕塑等八大艺术门类。该资源需使用支持flash的浏览器访问。</t>
+  </si>
+  <si>
+    <t>一带一路数据库</t>
+  </si>
+  <si>
+    <t>该资源是由社会科学文献出版社出品，以服务国家“一带一路”建设为目标，全方位、多角度呈现“一带一路”研究成果，为政府决策、企业投资提供权威、高效的决策参考，为学术科研提供严谨、翔实的资料数据。</t>
+  </si>
+  <si>
+    <t>易阅通/Elsevier“双语智读”电子书数据库</t>
+  </si>
+  <si>
+    <t>“双语智读”电子书由爱思唯尔公司出品。该库包含200种外文学术著作及中文对照译作，依托“易阅通”平台技术以数字化的形式集中呈现。内容涵盖的计算机科学、工程、生命科学、自然科学等多学科领域。</t>
+  </si>
+  <si>
+    <t>易阅通中外文电子书</t>
+  </si>
+  <si>
+    <t>“易阅通”是由中图公司自主开发的数字资源交易与服务平台。我馆可访问该平台超过2万种中外文电子图书专著。内容涵盖人文社科、自然科学等多学科领域。</t>
+  </si>
+  <si>
+    <t>月旦知识库</t>
+  </si>
+  <si>
+    <t>“月旦知识库”由台湾元照知识集团出品。该库下设期刊文献、图书文献、词典工具书、两岸常用法规、精选判解、教学案例、博硕论文索引、大陆文献索引库、题库讲座等共九大子库，收录了超过70万笔全文数据。</t>
+  </si>
+  <si>
+    <t>云图数字有声图书馆</t>
+  </si>
+  <si>
+    <t>“云图数字有声图书馆”由北京云途经纬科技文化传媒有限公司出品。提供海量数字有声作品，内容资源涵盖文学、历史、政治、法律、哲学、经济、管理、军事、医学、艺术、教育等领域。</t>
+  </si>
+  <si>
+    <t>掌阅精选</t>
+  </si>
+  <si>
+    <t>“掌阅精选”数字图书馆是掌阅科技专门大众读者推出的高品质阅读服务平台。掌阅科技已与国内外1000多家出版公司、文学网站等建立了良好的合作关系，内容资源丰富多样，涵盖“图书、有声、漫画、杂志”等，其中电子书包含“小说、文学、青春、影视原著、历史、传记、社会科学、心理、经管、旅游、养生/运动、孕产育儿、艺术、医学、法律、政治军事、工业、科普、互联网+、生活”等共21个大部类，60多个图书类别，可以满足不同用户的阅读兴趣。</t>
+  </si>
+  <si>
+    <t>知识视界微信图书馆</t>
+  </si>
+  <si>
+    <t>“知识视界”微信图书馆是以八个国家优质的科普视频为基础搭建的微信在线学习平台，库中精选了国际著名教科节目中最有趣实用的短视频，以科学常识为知识点，讲解深入浅出，内附中文配音，方便随时随地学习。平台每周更新2次，一次5~8个节目，在线即可观看学习，是我们开拓眼界、增长知识的好帮手。</t>
+  </si>
+  <si>
     <t>中标院标准目录数据</t>
   </si>
   <si>
-    <t>中文/英语/日语/其他</t>
-  </si>
-  <si>
     <t>中国标准化研究院负责加工的数据，内容包括ANSI、ASME、ASTM、BS、DIN、EN、IEC、IEEE、ISO、JIS、UL等国外标准题录（含中文译文），以及中国国家标准（GB）和行业标准题录。所购数据由系统网络中心导入自行开发的馆藏标准目录数据库，以便采编中心编目人员验收纸质标准及读者检索馆藏标准使用。</t>
-  </si>
-  <si>
-    <t>Elsevier/Ei Village Compendex工程索引</t>
-  </si>
-  <si>
-    <t>“Ei Village Compendex工程索引”由美国工程师学会联合会于1884年创办的综合性检索工具。收录期刊、会议录、出品物5000余种。内容涵盖各尖端学科、应用科学、工程与技术等领域。</t>
-  </si>
-  <si>
-    <t>Elsevier/Ei Village Compendex工程索引EV爱思唯尔</t>
-  </si>
-  <si>
-    <t>新东方微课堂</t>
-  </si>
-  <si>
-    <t>微课堂是新东方在线针对微学习、微课程的趋势推出的一款以视频为核心资源的学习平台产品，其定位为基于应用场景的语言应用百科。微课堂课程体系包括口语、商务、留学考试、国内应试、小语种等八大类，知识点超过5000个。</t>
   </si>
   <si>
     <t>中国地方历史文献数据库（一期）</t>
@@ -732,298 +1192,97 @@
 北、广东、云南、辽宁等地；或走村入户获得授权复制。一期入库3.5万件，约10万页，抄录2万页，其中徽州文书9000余件，石仓文书7000多件。</t>
   </si>
   <si>
-    <t>OverDrive/赛阅少儿数字图书馆</t>
-  </si>
-  <si>
-    <t>OverDrive是美国电子书、有声读物等下载资源的数字化内容经销商。我馆目前可访问7000余种该平台上的电子书、绘本、有声读物等。</t>
-  </si>
-  <si>
-    <t>博看畅销期刊数据库</t>
-  </si>
-  <si>
-    <t>“博看期刊数据库”由武汉鼎森电子科技有限公司出品。我馆可访问库内3000余种原版原貌电子期刊原文。内容涵盖时政新闻、文学文摘、体育养生、文化科普、健康卫生、时尚娱乐、女性家庭、金融理财、艺术品味、旅游民俗、医学医药等领域。</t>
-  </si>
-  <si>
-    <t>汇雅电子图书</t>
-  </si>
-  <si>
-    <t>“汇雅电子图书”由北京世纪超星信息技术发展有限责任公司出品。我馆可访问该库130万种中文电子图书专著。内容涵盖人文社科、自然科学等多学科领域。</t>
-  </si>
-  <si>
-    <t>超星名师讲坛</t>
-  </si>
-  <si>
-    <t>“超星名师讲坛”由北京世纪超星信息技术发展有限责任公司出品。该库为专业学术类视频库，内容涵盖文学、法律政治、管理学、经济学、历史学等多学科领域。</t>
-  </si>
-  <si>
-    <t>东京审判文献数据库（一期）</t>
-  </si>
-  <si>
-    <t>“东京审判文献数据库（一期）”由上海交通大学出版社出品，一期内容包括英文版《远东国际军事法庭庭审记录》、日文版《远东国际军事法庭证据文献》、庭审现场、人物等照片及部分视频资料。</t>
-  </si>
-  <si>
-    <t>读秀学术搜索</t>
-  </si>
-  <si>
-    <t>“读秀学术搜索”作为文献搜索及获取服务平台，文献类型包括图书、期刊、学位论文、会议论文等，可提供章节和全文检索、部分文献试读等多种功能。</t>
-  </si>
-  <si>
-    <t>库客数字音乐图书馆</t>
-  </si>
-  <si>
-    <t>“库客数字音乐图书馆”由北京库客音乐股份有限公司出品。我馆订购了古典音乐和剧院模块，收录曲目近12万余首，剧院视频1千余集。</t>
-  </si>
-  <si>
-    <t>人民日报图文数据库</t>
-  </si>
-  <si>
-    <t>“人民日报图文数据库”收录了人民日报1946年创刊至今的新闻报道。</t>
-  </si>
-  <si>
-    <t>新东方多媒体学习库</t>
-  </si>
-  <si>
-    <t>“新东方多媒体学习库”由新东方教育科技集团出品。该库包括应用外语类，国内考试类，出国考试类，实用技能等类六大类培训课程，涵盖了大学四六级、BEC初中级、中高口 、TOEFL、GRE、GMAT和研究生入学考试及其他多种非语言类课程。</t>
-  </si>
-  <si>
-    <t>新东方多纳智慧魔方</t>
-  </si>
-  <si>
-    <t>“新东方多纳智慧魔方”由新东方教育科技集团出品。以互动、游戏、娱乐等方式辅助少儿英语、数学、科学、汉字、艺术、故事学习。</t>
-  </si>
-  <si>
-    <t>新东方悦读汇</t>
-  </si>
-  <si>
-    <t>“新东方悦读汇（2016）”由新东方教育科技集团出品。涵盖奇闻趣事、精彩图片、经典段子、影视音乐、英语学习、犀利评论等内容。该资源需使用支持flash的浏览器访问，并开启IE兼容模式。</t>
-  </si>
-  <si>
-    <t>新东方中小学数字图书馆</t>
-  </si>
-  <si>
-    <t>“中小学数字图书馆”由新东方教育科技集团出品，内容涵盖小学，初中，高中九个学科的上百种课程及十万集视频及题库。提供在线学习、测评、考试，名师视频，线上、线下互动。</t>
-  </si>
-  <si>
-    <t>雅昌艺术图书数据库</t>
-  </si>
-  <si>
-    <t>“雅昌艺术图书数据库”由雅昌文化集团出品。收录了中国乃至世界各大艺术类出版社、博物馆、美术馆等艺术机构及艺术家最全面、最优秀的艺术图书资源，包括书画、油画、版画、雕塑等八大艺术门类。该资源需使用支持flash的浏览器访问。</t>
-  </si>
-  <si>
-    <t>趣悦读少儿数字图书馆</t>
-  </si>
-  <si>
-    <t>“趣悦读少儿数字图书馆”包括“才智小天地”和“益智动画馆”。“才智小天地”是为学龄前儿童的学前教育而量身定制的专业数字产品，是学龄前儿童教育的学习教材。“益智动画馆”是国内内容丰富的数字动画片库，包含国内主流知名的动画内容，所有内容均绿色健康并具有合法授权，内容包括国学类、幽默类、探险类、益智类等。</t>
-  </si>
-  <si>
-    <t>云图数字有声图书馆</t>
-  </si>
-  <si>
-    <t>“云图数字有声图书馆”由北京云途经纬科技文化传媒有限公司出品。提供海量数字有声作品，内容资源涵盖文学、历史、政治、法律、哲学、经济、管理、军事、医学、艺术、教育等领域。</t>
-  </si>
-  <si>
-    <t>“知识视界video library”视频教育资源库</t>
-  </si>
-  <si>
-    <t>“知识视界video library”视频教育资源库由武汉缘来文化有限公司出品。收录来自探索DISCOVERY、德国国家纪录片制作中心DW、澳大利亚Classroom Video、美国SHCLESSINGER、英国BBC等国际著名纪录片制作中心(机构)出品的视频产品，涵盖自然科学、人文历史、医学保健、工程技术、军事侦探、专题讲座、语言学习等领域。</t>
-  </si>
-  <si>
-    <t>ProQuest/Library &amp; Information Science Abstracts (LISA)</t>
-  </si>
-  <si>
-    <t>“Library &amp; Information Science Abstracts (LISA)”由ProQuest公司出品。收录了图书馆学、信息理论、在线检索等领域的相关文献。</t>
-  </si>
-  <si>
-    <t>ProQuest/Materials Science &amp; Engineering Collection</t>
-  </si>
-  <si>
-    <t>“Materials Science &amp; Engineering Collection”由ProQuest公司出品。收录了涵盖材料科学与工程学各方面的全文文献及文摘资料。</t>
-  </si>
-  <si>
-    <t>ProQuest/The Women's Wear Daily Archive (WWD)</t>
-  </si>
-  <si>
-    <t>“The Women's Wear Daily Archive (WWD)”由Fairchild Fashion Media出品。涵盖了《Women's Wear Daily》自1910年至今的高清晰度的图像，提供各种时尚、美容以及零售工业的信息、商业性新闻及女性时尚趋势，有时尚圣经之称。数据更新延迟6个月。</t>
-  </si>
-  <si>
-    <t>ProQuest学位论文全文检索平台/ProQuest博硕士论文 (PQDD)</t>
-  </si>
-  <si>
-    <t>“PQDT学位论文全文库”由ProQuest公司出品，收录了来自欧美国家2000余所知名大学的100多万篇优秀博硕士论文。内容涵盖人文社科、自然科学等多学科。</t>
-  </si>
-  <si>
-    <t>RSC GOLD/英国皇家化学学会期刊数据库</t>
-  </si>
-  <si>
-    <t>“RSC GOLD电子期刊”由英国皇家化学学会出品。该库含全文电子刊50余种、4种数据库、《环境科学与技术丛书》电子丛书一套。</t>
-  </si>
-  <si>
-    <t>ACS Journals/美国化学学会期刊</t>
-  </si>
-  <si>
-    <t>“ACS电子期刊”由美国化学学会(American Chemical Society, ACS)出品。ACS成立于1876年，现已成为世界上最大的科技协会之一。</t>
-  </si>
-  <si>
-    <t>PNAS/美国科学院院报</t>
-  </si>
-  <si>
-    <t>Proceedings of the National Academy of Sciences of the United States of America《美国科学院院报》（PNAS）是世界上被引用次数最多的综合学科刊物之一。1914年创刊，致力于前沿研究报告、学术评论、学科回顾及前瞻、学术论文以及美国国家科学学会学术动态的报道和出版。</t>
-  </si>
-  <si>
-    <t>EduScholarships Index全球科研机构奖学金检索数据库</t>
-  </si>
-  <si>
-    <t>“全球科研机构奖学金检索数据库”（EduScholarships Index）为索引数据库，内容覆盖全球210多个国家，600万所不同机构,包括从幼儿园教师到大学的教研人员信息、奖学金及助学金信息。</t>
-  </si>
-  <si>
-    <t>EBSCO/Academic Search Ultimate (ASU)</t>
-  </si>
-  <si>
-    <t>“Academic Search Ultimate”由EBSCO Publishing出品。该库收录近2万种期刊的索摘，提供13000余种全文期刊。另收录非刊类全文文献如全文书籍专著以及会议论文、百科和专题报告全文等。内容涵盖了社会学、人文学、教育学、计算机学、工程学、物理学、化工、语言学、文学与艺术、医药学、种族学等多学科领域。</t>
-  </si>
-  <si>
-    <t>EBSCO/Agricola</t>
-  </si>
-  <si>
-    <t>“Agricola”由美国农业部国家农业图书馆出品。主题涵盖农业学、植物学、化学、自然资源、动物学和生态学等，收录1970年迄今的期刊、图书、会议论文、研究报告、政府文件和视听媒体、计算机软件等数据，提供超过600万笔关于期刊文章、书籍章节、论文等文献题录信息。</t>
-  </si>
-  <si>
-    <t>EBSCO/Art &amp; Architecture Source</t>
-  </si>
-  <si>
-    <t>“Art &amp; Architecture Source”由EBSCO Publishing出品。收录700多种全文期刊、近200种全文书籍以及6万多张图片，涵盖了范围广泛的相关主题，从美术、装饰艺术和商业艺术到建筑和建筑设计的各个领域。</t>
-  </si>
-  <si>
-    <t>EBSCO/Business Source Ultimate (BSU)</t>
-  </si>
-  <si>
-    <t>“Business Source Ultimate”由EBSCO Publishing出品。BSU为EBSCO最完整的商管财经全文数据库，收录7000多种期刊索引及摘要，提供6000多种全文期刊。另外收录书籍专著、企业公司档案、国家经济报告、行业报告、案例研究、市场研究报告、SWOT分析等。</t>
-  </si>
-  <si>
-    <t>EBSCO/eBook Collection</t>
-  </si>
-  <si>
-    <t>“eBook Collection”电子图书由EBSCO Publishing出品。我馆可访问该库1万3千余种电子图书专著，涵盖美国历史、小说、诗歌、人物传记、哲学宗教等内容。</t>
-  </si>
-  <si>
-    <t>EBSCO/ERIC</t>
-  </si>
-  <si>
-    <t>“ERIC”是美国教育部教育资源信息中心出品的教育文献和研究在线资源，含教育相关的论文(ERIC Documents)及期刊文献(Journal Articles)两种档案。</t>
-  </si>
-  <si>
-    <t>EBSCO/European Views of the Americas: 1493 to 1750</t>
-  </si>
-  <si>
-    <t>“European Views of the Americas: 1493 to 1750”由EBSCO Publishing与John Carter Brown Library合作出品。针对1750年前欧洲创作的美国相关作品的书面记录，收录了3万余种图书、手稿资源。</t>
-  </si>
-  <si>
-    <t>EBSCO/GreenFILE</t>
-  </si>
-  <si>
-    <t>“GreenFILE”由EBSCO Publishing出品。该数据库针对人类对环境所产生的各方面影响，包括全球变暖、绿色建筑、污染、可持续农业、再生能源、资源回收等，提供一百多万条记录的索引与摘要，以及1万5千多条记录的OpenAccess全文。</t>
-  </si>
-  <si>
-    <t>EBSCO/Library, Information Science &amp; Technology Abstracts</t>
-  </si>
-  <si>
-    <t>“图书馆信息科学与技术文摘数据库(LISTA)”由EBSCO Publishing出品。提供超过900种期刊、图书、研究报告和会议录的索引，最早的记录回溯至1952年。内容涵盖了图书馆馆长、分类、编目、书目学、在线信息检索、信息管理等主题。</t>
-  </si>
-  <si>
-    <t>EBSCO/MEDLINE</t>
-  </si>
-  <si>
-    <t>“MEDLINE”由美国国家医学图书馆（National Library of Medicine）创建。可检索5000多种流行生物医学期刊中的引文，提供了有关医学、护理、牙科、兽医、医疗保健制度、临床前科学及其他方面的医学信息。</t>
-  </si>
-  <si>
-    <t>EBSCO/OpenDissertations</t>
-  </si>
-  <si>
-    <t>“OpenDissertations”是一个开放存取数据库，在H.W. Wilson Foundation及波士顿Congregational Library &amp; Archives支持下创建，整合了EBSCO先前发布的American Doctoral Dissertations，收录了世界各地优选的大学院校提供的专题论文元数据。</t>
-  </si>
-  <si>
-    <t>EBSCO/Professional Development Collection</t>
-  </si>
-  <si>
-    <t>“Professional Development Collection”由EBSCO Publishing出品。收录教育学高质量期刊700多种，其中持续收录的全文资源有200多种，与ERIC做为教育学资源套装，为教育者提供完整的引用资源专辑以及全文参考资源。</t>
-  </si>
-  <si>
-    <t>EBSCO/SPORTDiscus with Full Text</t>
-  </si>
-  <si>
-    <t>“SPORTDiscus with Full Text”由EBSCO Publishing出品。全面提供世界上的运动和运动医学期刊的全文资源，收录SPORTDiscus索引中800多种最受欢迎期刊的全文。全文收录的文章可追溯至1930年。</t>
-  </si>
-  <si>
-    <t>EBSCO/Teacher Reference Center</t>
-  </si>
-  <si>
-    <t>“Teacher Reference Center”由EBSCO Publishing出品。包括200多种教育领域期刊杂志的索引文摘。</t>
-  </si>
-  <si>
-    <t>Gale/Archives Unbound-19th Century English-Language Journals from the Far East</t>
-  </si>
-  <si>
-    <t>“Archives Unbound”由Gale集团出品。我馆订购的《19世纪远东英文期刊》合集包括6种19世纪远东英语期刊，分别为《印中搜闻》（1817-1822）、《中国评论》（1872-1901）、《广州杂志》（1831）、《中国杂志》（1845-1850）、《中日丛报》（1863-1865）和《中日释疑》（1867-1870）。</t>
-  </si>
-  <si>
-    <t>Gale/Archives Unbound-19th Century English-Language Journals from the Far East AU</t>
-  </si>
-  <si>
-    <t>Gale/Archives Unbound-Chinese Maritime Customs Service: The Customs’ Gazette, 1869-1913</t>
-  </si>
-  <si>
-    <t>我馆与Gale集团合作出品了《中国海关总税务司：&lt;海关公报&gt;，1869年-1913年》，通过Archives Unbound平台提供使用。</t>
-  </si>
-  <si>
-    <t>Gale/Archives Unbound-Chinese Maritime Customs Service: The Customs’ Gazette, 1869-1913AU</t>
-  </si>
-  <si>
-    <t>Gale/Archives Unbound-Policing the Shanghai International Settlement, 1894-1945</t>
-  </si>
-  <si>
-    <t>“Archives Unbound”由Gale集团出品。我馆订购的《上海公共租界警务子库》收录全文3886条。内容涵盖了1894至1945年间，英国市政警察部队在上海公共租界的大部分档案，涉及政治示威、罢工、劳动和社会动荡，公共租界与中国政府之间的关系等内容。</t>
-  </si>
-  <si>
-    <t>Gale/Archives Unbound-Policing the Shanghai International Settlement, 1894-1945AU</t>
-  </si>
-  <si>
-    <t>Gale/Archives Unbound-Shanghai Municipal Council: The Municipal Gazette, 1908-1942</t>
-  </si>
-  <si>
-    <t>我馆与Gale集团合作出品了《上海工部局董事会：&lt;工部局公报&gt;，1908年-1942年》，通过Archives Unbound平台提供使用。</t>
-  </si>
-  <si>
-    <t>Gale/Archives Unbound-Shanghai Municipal Council: The Municipal Gazette, 1908-1942AU</t>
-  </si>
-  <si>
-    <t>易阅通中外文电子书</t>
-  </si>
-  <si>
-    <t>“易阅通”是由中图公司自主开发的数字资源交易与服务平台。我馆可访问该平台超过2万种中外文电子图书专著。内容涵盖人文社科、自然科学等多学科领域。</t>
-  </si>
-  <si>
-    <t>APS电子期刊数据库</t>
-  </si>
-  <si>
-    <t>APS全文期刊库由The American Physical Society出品。APS出版的物理评论系列期刊包括Physical Review A/B/C/D/E、Physical Review Letters 等。用户可通过APS期刊数据库平台访问学会出版的所有期刊。</t>
-  </si>
-  <si>
-    <t>ASME电子期刊数据库</t>
-  </si>
-  <si>
-    <t>ASME期刊库由美国机械工程师学会出品，学科涵盖机械工程、制造工程、海洋工程、力学、热力学、电子电气工程、机器人学等。用户可通过ASME期刊数据库平台访问学会出版的所有期刊。</t>
-  </si>
-  <si>
-    <t>万方数据/中国学术期刊数据库</t>
-  </si>
-  <si>
-    <t>包含8000余种期刊，其中包含北京大学、中国科学技术信息研究所、中国科学院文献情报中心、南京大学、中国社会科学院历年收录的核心期刊3300余种，年增300万篇，每天更新，涵盖自然科学、工程技术、医药卫生、农业科学、哲学政法、社会科学、科教文艺等各个学科。</t>
-  </si>
-  <si>
-    <t>维普资讯/中文科技期刊数据库</t>
-  </si>
-  <si>
-    <t>该库收录了1989至今近一万五千余种国内期刊文献，内容涵盖社会科学、自然科学、工程技术、农业科学、医药卫生、经济管理、教育科学和图书情报等领域。</t>
+    <t>中国减贫研究数据库</t>
+  </si>
+  <si>
+    <t>中国减贫研究数据库以社会科学文献出版社出版的贫困研究成果为基础，全面覆盖832个国家级贫困县、14个连片特困区，主要涉及中国和全球贫困治理的学术专著、研究报告、贫困资料等，面向高校图书馆、公共图书馆、科研机构、党政用户、社会大众发挥科研支持、决策咨询、社会动员等作用。</t>
+  </si>
+  <si>
+    <t>中国科学文献服务系统/中国科技期刊引证指标数据库（CSCD-JCR）</t>
+  </si>
+  <si>
+    <t>中国科技期刊引证指标数据库是根据CSCD年度期刊指标统计数据创建的。该统计数据以CSCD核心库为基础，对刊名等信息进行了大量的规范工作，所有指标统计遵循文献计量学的相关定律及统计方法，这些指标如实反映国内科技期刊在中文世界的价值和影响力。</t>
+  </si>
+  <si>
+    <t>中国科学文献服务系统/中国科学文献计量指标数据库（CSCD-ESI）</t>
+  </si>
+  <si>
+    <t>中国科学文献计量指标数据库运用科学计量学和网络计量学的有关方法，以CSCD及SCI年度数据为基础，对我国年度科技论文的产出力和影响力及其分布情况进行客观的统计和描述。</t>
+  </si>
+  <si>
+    <t>中国科学文献服务系统/中国科学引文数据库（CSCD）</t>
+  </si>
+  <si>
+    <t>创建于1989年，收录我国数学、物理、化学、天文学、地学、生物学、农林科学、医药卫生、工程技术、环境科学和管理科学等领域出版的中英文科技核心期刊和优秀期刊千余种。</t>
+  </si>
+  <si>
+    <t>中国历史人物传记资源库</t>
+  </si>
+  <si>
+    <t>“中国历史人物传记资源库”由国家图书馆出版社与北京大学数据分析研究中心联合研制。该库为大型历史人物传记文献资料库。</t>
+  </si>
+  <si>
+    <t>中国人民大学复印报刊资料库</t>
+  </si>
+  <si>
+    <t>该资源囊括了人文社会科学领域的各个学科，内容源于“复印报刊资料”系列纸质期刊，是由专业编辑和学界专家依循严谨的学术标准对海量学术信息进行精选整理、分类编辑，最终形成优中选优的精品成果库。我馆已订购自2014年至今出版内容，提供【全文数据库】和【数字期刊库】两个模块使用服务。</t>
+  </si>
+  <si>
+    <t>中国社会科学文库</t>
+  </si>
+  <si>
+    <t>“中国社会科学文库”由中国社会科学出版社出品，收录该社出版的学术专著电子图书超过2万种。内容涵盖哲学社会科学11个基本学科。</t>
+  </si>
+  <si>
+    <t>中国数字方志库</t>
+  </si>
+  <si>
+    <t>“中国数字方志库”由北京籍古轩图书数字技术有限公司出品。收录1949年以前地志类文献一万五千余种。</t>
+  </si>
+  <si>
+    <t>中国知网/国际会议论文全文数据库</t>
+  </si>
+  <si>
+    <t>重点收录1999年以来，中国科协系统及其他重要会议主办单位举办的在国内或国外召开的国际会议上发表的文献，部分重点会议文献回溯至1981年。</t>
+  </si>
+  <si>
+    <t>中国知网/国际会议论文全文数据库清华同方</t>
+  </si>
+  <si>
+    <t>中国知网/中国博士学位论文全文数据库</t>
+  </si>
+  <si>
+    <t>覆盖基础科学、工程技术、农业、医学、哲学、人文、社会科学等各个领域，收录全国985、211工程等重点高校，中国科学院、社会科学院等研究院所的博士学位论文。涵盖500余家博士培养单位的博士学位论文60余万篇。</t>
+  </si>
+  <si>
+    <t>中国知网/中国博士学位论文全文数据库清华同方</t>
+  </si>
+  <si>
+    <t>中国知网/中国经济社会大数据研究平台</t>
+  </si>
+  <si>
+    <t>囊括了我国所有中央级、省级及其主要地市级统计年鉴和各类统计资料，提供挖掘分析服务。</t>
+  </si>
+  <si>
+    <t>中国知网/中国经济社会大数据研究平台清华同方</t>
+  </si>
+  <si>
+    <t>中国知网/中国科技项目创新成果鉴定意见数据库</t>
+  </si>
+  <si>
+    <t>“收录正式登记的中国科技成果，及专家组对该项成果的推广应用前景与措施、主要技术文件目录及来源、测试报告和鉴定意见等内容的全文鉴定数据。涵盖数学物理力学天地生、化学化工冶金环境矿业、机电航空交通水利建筑能源、农业、医药卫生、电子技术及信息科学等多学科。我馆收录年限至2017年。</t>
+  </si>
+  <si>
+    <t>中国知网/中国科技项目创新成果鉴定意见数据库清华同方</t>
+  </si>
+  <si>
+    <t>中国知网/中国年鉴网络出版总库</t>
+  </si>
+  <si>
+    <t>内容覆盖基本国情、地理历史、政治军事外交、法律、经济、科学技术、教育、文化体育事业、医疗卫生、社会生活、人物、统计资料、文件标准与法律法规等各个领域。我馆收录年限至2017年。</t>
+  </si>
+  <si>
+    <t>中国知网/中国年鉴网络出版总库清华同方</t>
   </si>
   <si>
     <t>中国知网/中国学术期刊网络出版总库</t>
@@ -1035,150 +1294,6 @@
     <t>中国知网/中国学术期刊网络出版总库清华同方</t>
   </si>
   <si>
-    <t>中国人民大学复印报刊资料库</t>
-  </si>
-  <si>
-    <t>该资源囊括了人文社会科学领域的各个学科，内容源于“复印报刊资料”系列纸质期刊，是由专业编辑和学界专家依循严谨的学术标准对海量学术信息进行精选整理、分类编辑，最终形成优中选优的精品成果库。我馆已订购自2014年至今出版内容，提供【全文数据库】和【数字期刊库】两个模块使用服务。</t>
-  </si>
-  <si>
-    <t>万方数据/中国地方志数据库</t>
-  </si>
-  <si>
-    <t>以地方志为核心资源，全面系统整合我国现有新旧方志文献资源，实现新旧方志统一检索，提供地图找志、可按地区、时间/朝代、专辑等方式来查找文献。</t>
-  </si>
-  <si>
-    <t>中国知网/中国年鉴网络出版总库</t>
-  </si>
-  <si>
-    <t>内容覆盖基本国情、地理历史、政治军事外交、法律、经济、科学技术、教育、文化体育事业、医疗卫生、社会生活、人物、统计资料、文件标准与法律法规等各个领域。我馆收录年限至2017年。</t>
-  </si>
-  <si>
-    <t>中国知网/中国年鉴网络出版总库清华同方</t>
-  </si>
-  <si>
-    <t>incoPat全球科技分析运营平台</t>
-  </si>
-  <si>
-    <t>incoPat是一个将全球顶尖的发明智慧深度整合，并翻译为中文，为中国的项目决策者、研发人员、知识产权管理人员提供科技创新情报的平台。该资源提供6个并发用户为公众服务。</t>
-  </si>
-  <si>
-    <t>国别区域与全球治理数据库</t>
-  </si>
-  <si>
-    <t>该资源是社会科学文献出版社重点打造的学术型数字产品，对接国别区域这一重点新兴学科，围绕国别研究、区域研究、国际组织、全球智库等领域，全方位整合基础信息、一手资料、科研成果。</t>
-  </si>
-  <si>
-    <t>国家建筑标准设计图集电子书库（国标电子书库）</t>
-  </si>
-  <si>
-    <t>由住房和城乡建设部唯一授权的国家建筑标准设计归口管理和组织编制单位中国建筑标准设计研究院权威出版。以电子化形式集成了国家建筑标准设计60多年来的技术成果，收录了国家建筑标准设计图集、全国民用建筑工程设计技术措施等多项技术资源。我馆订购国家建筑标准设计图集，提供五个并发用户。</t>
-  </si>
-  <si>
-    <t>皮书数据库</t>
-  </si>
-  <si>
-    <t>该资源是由社会科学文献出版社出品，以大型连续性系列皮书为基础，内容覆盖80余个国家、30个国际区域及国际组织，以及中国28个省级行政区、20个区域经济体、200个地级及以上行政区，涉及100多个行业。</t>
-  </si>
-  <si>
-    <t>New Scientific and Technical Information Network（New STN科学与技术信息联机检索平台）</t>
-  </si>
-  <si>
-    <t>“New STN科学与技术信息联机检索平台”由CAS和FIZ Karlsruhe共同运营。可联机检索150多个数据库。内容涵盖期刊文献、专利、结构式、生物序列、性质等。New STN数据库完全覆盖了CA（化学文摘）数据库的全部内容，且收录年限前移至1907年。</t>
-  </si>
-  <si>
-    <t>New Scientific and Technical Information Network（New STN科学与技术信息联机检索平台）CA</t>
-  </si>
-  <si>
-    <t>OCLC Worldcat联合目录</t>
-  </si>
-  <si>
-    <t>“OCLC Worldcat联合目录”由OCLC出品，收录了OCLC成员图书馆编目的所有记录，括图书、期刊与杂志、报纸、地图、乐谱、手稿本、网络资源等。</t>
-  </si>
-  <si>
-    <t>OECD iLibrary经合组织在线图书馆</t>
-  </si>
-  <si>
-    <t>“OECD iLibrary”是经合组织推出的网络服务平台。我馆可访问OECD出品物、OECD统计数据和IEA国际能源机构统计数据三部分内容。</t>
-  </si>
-  <si>
-    <t>SAE Digital Library-Technical Papers/ 美国汽车工程师协会技术论文数据库</t>
-  </si>
-  <si>
-    <t>“SAE技术论文数据库”（SAE Technical Papers）由美国汽车工程师学会出品。收录了1998年迄今的报告全文35000余篇，以及SAE出品的标准、期刊论文等文献题录或文摘。内容涵盖汽车、航空、航天、船舶、移动机械等多领域。</t>
-  </si>
-  <si>
-    <t>一带一路数据库</t>
-  </si>
-  <si>
-    <t>该资源是由社会科学文献出版社出品，以服务国家“一带一路”建设为目标，全方位、多角度呈现“一带一路”研究成果，为政府决策、企业投资提供权威、高效的决策参考，为学术科研提供严谨、翔实的资料数据。</t>
-  </si>
-  <si>
-    <t>中国减贫研究数据库</t>
-  </si>
-  <si>
-    <t>中国减贫研究数据库以社会科学文献出版社出版的贫困研究成果为基础，全面覆盖832个国家级贫困县、14个连片特困区，主要涉及中国和全球贫困治理的学术专著、研究报告、贫困资料等，面向高校图书馆、公共图书馆、科研机构、党政用户、社会大众发挥科研支持、决策咨询、社会动员等作用。</t>
-  </si>
-  <si>
-    <t>AIP电子期刊数据库</t>
-  </si>
-  <si>
-    <t>AIP（美国物理联合会，American Institute of Physics）是世界上居于领导地位的物理期刊出版社之一。主要的研究方向为物理学和天文物理学，并且为这一研究领域的科学家和教育工作者及学生服务。我馆购买了部分纸刊，可以浏览对应的电子期刊。</t>
-  </si>
-  <si>
-    <t>Wiley E-Textbook电子教材</t>
-  </si>
-  <si>
-    <t>“Wiley电子教材”精选了Wiley国际知名原版教材。我馆可访问2000余种。</t>
-  </si>
-  <si>
-    <t>Wiley Online Library/Wiley电子期刊数据库</t>
-  </si>
-  <si>
-    <t>“Wiley电子期刊数据库”由Wiley-Blackwell出品。我馆可访问约1000种Wiley-Blackwell电子期刊的全文内容，回溯到1997年，内容涵化学、工程等领域。</t>
-  </si>
-  <si>
-    <t>Wiley Online Library/Wiley电子书</t>
-  </si>
-  <si>
-    <t>“Wiley电子书”由Wiley-Blackwell出品。我馆可访问该平台2万余种电子图书专著，内容涵盖化学、生命科学、物理学、人文社科、电子电器工程、数学和统计学等多学科领域。</t>
-  </si>
-  <si>
-    <t>Wiley Online Library/Wiley Reference Works 在线参考工具书</t>
-  </si>
-  <si>
-    <t>“Wiley在线参考工具书”由Wiley-Blackwell出品。我馆可访问该库200余种电子工具书。内容涵盖数学与统计学、物理学、化学、生命科学、医学、计算机科学、工程学、地球与环境科学、 材料科学、农林牧业、经济管理、人文科学、社会科学等学科领域。</t>
-  </si>
-  <si>
-    <t>WorldSciNet世界科技电子图书</t>
-  </si>
-  <si>
-    <t>“世界科技电子图书”由世界科技出版公司（World Scientific）出品。我馆可访问该库自1981年至2020年出版的8000余种经典英文科技专著图书（不包括会议文集、教材以及其他未电子化的经典英文科技著作）。</t>
-  </si>
-  <si>
-    <t>WorldSciNet世界科技电子图书World Scientific</t>
-  </si>
-  <si>
-    <t>WorldSciNet世界科技期刊数据库</t>
-  </si>
-  <si>
-    <t>“世界科技期刊网（WorldSciNet）”由世界科技出品公司（World Scientific）出品。我馆可访问库内120种科技期刊2017-2023年全文内容。</t>
-  </si>
-  <si>
-    <t>WorldSciNet世界科技期刊数据库World Scientific</t>
-  </si>
-  <si>
-    <t>易阅通/Elsevier“双语智读”电子书数据库</t>
-  </si>
-  <si>
-    <t>“双语智读”电子书由爱思唯尔公司出品。该库包含200种外文学术著作及中文对照译作，依托“易阅通”平台技术以数字化的形式集中呈现。内容涵盖的计算机科学、工程、生命科学、自然科学等多学科领域。</t>
-  </si>
-  <si>
-    <t>万方数据/中国学位论文全文数据库</t>
-  </si>
-  <si>
-    <t>收录始于1980年，年增35余万篇，涵盖基础科学、理学、工业技术、人文科学、社会科学、医药卫生、农业科学、交通运输、航空航天和环境科学等各学科领域。</t>
-  </si>
-  <si>
     <t>中国知网/中国优秀硕士学位论文全文数据库</t>
   </si>
   <si>
@@ -1188,30 +1303,6 @@
     <t>中国知网/中国优秀硕士学位论文全文数据库清华同方</t>
   </si>
   <si>
-    <t>中国知网/中国博士学位论文全文数据库</t>
-  </si>
-  <si>
-    <t>覆盖基础科学、工程技术、农业、医学、哲学、人文、社会科学等各个领域，收录全国985、211工程等重点高校，中国科学院、社会科学院等研究院所的博士学位论文。涵盖500余家博士培养单位的博士学位论文60余万篇。</t>
-  </si>
-  <si>
-    <t>中国知网/中国博士学位论文全文数据库清华同方</t>
-  </si>
-  <si>
-    <t>万方数据/中国学术会议文献数据库</t>
-  </si>
-  <si>
-    <t>会议资源包括中文会议和外文会议，中文会议收录始于1982年，外文会议主要来源于NSTL外文文献数据库，收录了1985年以来世界各主要学协会、出版机构出版的学术会议论文。</t>
-  </si>
-  <si>
-    <t>中国知网/国际会议论文全文数据库</t>
-  </si>
-  <si>
-    <t>重点收录1999年以来，中国科协系统及其他重要会议主办单位举办的在国内或国外召开的国际会议上发表的文献，部分重点会议文献回溯至1981年。</t>
-  </si>
-  <si>
-    <t>中国知网/国际会议论文全文数据库清华同方</t>
-  </si>
-  <si>
     <t>中国知网/中国重要会议论文全文数据库</t>
   </si>
   <si>
@@ -1221,28 +1312,22 @@
     <t>中国知网/中国重要会议论文全文数据库清华同方</t>
   </si>
   <si>
-    <t>万方全球智库</t>
-  </si>
-  <si>
-    <t>万方全球智库以全球顶级智库机构为目标，汇集全球顶级智库的研究成果、智库动态、智库机构、智库专家等内容。</t>
-  </si>
-  <si>
-    <t>中国科学文献服务系统/中国科技期刊引证指标数据库（CSCD-JCR）</t>
-  </si>
-  <si>
-    <t>中国科技期刊引证指标数据库是根据CSCD年度期刊指标统计数据创建的。该统计数据以CSCD核心库为基础，对刊名等信息进行了大量的规范工作，所有指标统计遵循文献计量学的相关定律及统计方法，这些指标如实反映国内科技期刊在中文世界的价值和影响力。</t>
-  </si>
-  <si>
-    <t>中国科学文献服务系统/中国科学文献计量指标数据库（CSCD-ESI）</t>
-  </si>
-  <si>
-    <t>中国科学文献计量指标数据库运用科学计量学和网络计量学的有关方法，以CSCD及SCI年度数据为基础，对我国年度科技论文的产出力和影响力及其分布情况进行客观的统计和描述。</t>
-  </si>
-  <si>
-    <t>中国科学文献服务系统/中国科学引文数据库（CSCD）</t>
-  </si>
-  <si>
-    <t>创建于1989年，收录我国数学、物理、化学、天文学、地学、生物学、农林科学、医药卫生、工程技术、环境科学和管理科学等领域出版的中英文科技核心期刊和优秀期刊千余种。</t>
+    <t>中国资讯行（infobank）</t>
+  </si>
+  <si>
+    <t>收录了从中央到地方1000多种综合性财经类主流媒体，包括报纸、杂志、学报、书籍和各类年鉴，以及海外综合类、财经类报纸，政府或民间专业信息机构的宏观经济分析或行业报告，反映了全国各地区、各行业的经济动态。</t>
+  </si>
+  <si>
+    <t>中华再造善本数据库（一、二期）</t>
+  </si>
+  <si>
+    <t>“中华再造善本数据库”由国家图书馆出版社出品，将“中华再造善本工程”中影印出品的珍贵古籍善本进行图像数字化，自唐迄清分为四编，并另设“少数民族文字编”。各编按传统的经、史、子、集、丛编次类归。</t>
+  </si>
+  <si>
+    <t>中文社会科学引文索引数据库（CSSCI）</t>
+  </si>
+  <si>
+    <t>“中文社会科学引文索引数据库”由南京大学中国社会科学研究评价中心开发研制，用于检索中文人文社会科学领域的论文收录和被引用情况。</t>
   </si>
 </sst>
 </file>
@@ -2296,13 +2381,14 @@
   <sheetPr/>
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="19.9" customWidth="1"/>
+    <col min="1" max="1" width="30.8" customWidth="1"/>
+    <col min="2" max="2" width="13.6" customWidth="1"/>
     <col min="4" max="4" width="65.7" customWidth="1"/>
     <col min="5" max="5" width="13.3" customWidth="1"/>
     <col min="7" max="7" width="44.9" customWidth="1"/>
@@ -2414,10 +2500,10 @@
         <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>17</v>
@@ -2425,7 +2511,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -2434,39 +2520,39 @@
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2483,10 +2569,10 @@
         <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>25</v>
@@ -2532,7 +2618,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>29</v>
@@ -2552,10 +2638,10 @@
         <v>32</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>31</v>
@@ -2563,25 +2649,25 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2589,10 +2675,10 @@
         <v>37</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>38</v>
@@ -2601,7 +2687,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>37</v>
@@ -2612,19 +2698,19 @@
         <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>39</v>
@@ -2632,40 +2718,40 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
@@ -2673,45 +2759,45 @@
         <v>12</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="E18" s="3" t="s">
         <v>11</v>
       </c>
@@ -2719,260 +2805,260 @@
         <v>12</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2980,10 +3066,10 @@
         <v>74</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>75</v>
@@ -2992,861 +3078,861 @@
         <v>11</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D53" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D65" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D67" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3854,10 +3940,10 @@
         <v>157</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>158</v>
@@ -3866,7 +3952,7 @@
         <v>11</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>157</v>
@@ -3877,83 +3963,83 @@
         <v>159</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="E70" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="E71" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="E72" s="3" t="s">
         <v>11</v>
       </c>
@@ -3961,22 +4047,22 @@
         <v>12</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="E73" s="3" t="s">
         <v>11</v>
       </c>
@@ -3984,35 +4070,35 @@
         <v>12</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>8</v>
@@ -4021,21 +4107,21 @@
         <v>9</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>8</v>
@@ -4044,67 +4130,67 @@
         <v>9</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>8</v>
@@ -4113,128 +4199,128 @@
         <v>9</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>192</v>
@@ -4242,22 +4328,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>196</v>
+        <v>8</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>195</v>
@@ -4265,237 +4351,237 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>8</v>
@@ -4504,7 +4590,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>11</v>
@@ -4518,25 +4604,25 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D97" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4544,19 +4630,19 @@
         <v>223</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>223</v>
@@ -4564,873 +4650,873 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D99" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="C100" s="3" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="G108" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>47</v>
+        <v>269</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="3" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="3" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>35</v>
+        <v>241</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>51</v>
+        <v>241</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>35</v>
+        <v>241</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>35</v>
+        <v>241</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>51</v>
+        <v>227</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>51</v>
+        <v>227</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>305</v>
@@ -5438,71 +5524,71 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="D137" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G137" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="D138" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G138" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="D139" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G139" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5510,7 +5596,7 @@
         <v>313</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>9</v>
@@ -5522,7 +5608,7 @@
         <v>11</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>313</v>
@@ -5533,7 +5619,7 @@
         <v>315</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>9</v>
@@ -5556,7 +5642,7 @@
         <v>317</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>9</v>
@@ -5568,7 +5654,7 @@
         <v>11</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>317</v>
@@ -5579,7 +5665,7 @@
         <v>319</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>9</v>
@@ -5602,341 +5688,341 @@
         <v>321</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>322</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="E145" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D146" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B146" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>327</v>
-      </c>
       <c r="E146" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D147" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>329</v>
-      </c>
       <c r="E147" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="E148" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="E149" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B150" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>335</v>
-      </c>
       <c r="E150" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B151" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>337</v>
-      </c>
       <c r="E151" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D152" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B152" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="E152" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>341</v>
-      </c>
       <c r="E153" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="E154" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>345</v>
-      </c>
       <c r="E155" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>35</v>
+        <v>241</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>51</v>
+        <v>241</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>352</v>
@@ -5944,71 +6030,71 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B159" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="3" t="s">
+      <c r="E159" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G159" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B160" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="3" t="s">
+      <c r="E160" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G160" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B161" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="3" t="s">
+      <c r="E161" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G161" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -6016,7 +6102,7 @@
         <v>362</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>51</v>
+        <v>241</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>9</v>
@@ -6028,7 +6114,7 @@
         <v>11</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>364</v>
@@ -6039,7 +6125,7 @@
         <v>365</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>51</v>
+        <v>241</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>9</v>
@@ -6051,7 +6137,7 @@
         <v>11</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>367</v>
@@ -6062,7 +6148,7 @@
         <v>368</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>9</v>
@@ -6074,83 +6160,86 @@
         <v>11</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D165" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G165" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G165" s="3" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D166" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G166" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>51</v>
+        <v>241</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D167" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G167" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A2:G167">
+      <sortCondition ref="A2"/>
+    </sortState>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
